--- a/data/df_with_many_tags_27_11.xlsx
+++ b/data/df_with_many_tags_27_11.xlsx
@@ -468,9 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Acoustic Control System, 3D sonar technology, acoustic telemetry link, BOP operation"
-}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,7 +496,7 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>{
-  "tags": "GPS receiver, marine_echo_sounder, GNSS infrastructure, spoofing mitigation, marine GPS, vessel tracking, maritime navigation"
+  "tags": "GPS receiver, marine echo sounder, GNSS infrastructure, sensor fusion compatible, vessel tracking, maritime navigation"
 }</t>
         </is>
       </c>
@@ -526,7 +524,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{"tags": "Acoustic Control System, AIS transponder, autonomous navigation, underwater surveillance, marine survey"}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +551,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{"tags": "Acoustic Control System, AIS transponder, underwater surveillance, remote sensing"}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +578,9 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{"tags": "Modem, Radio, surface, transceiver, VDES technology, reconfigurable SDR, maritime communication, navigation systems"}</t>
+          <t>{
+  "tags": "Radio, transceiver, reconfigurable SDR, VDES technology, maritime communication, navigation systems"
+}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +607,9 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{"tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"}</t>
+          <t>{
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
+}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +637,7 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
 }</t>
         </is>
       </c>
@@ -663,9 +665,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Acoustic Control System, 3D sonar technology, acoustic telemetry link, remote sensing, BOP operation, underwater surveillance, autonomous navigation, AIS transponder, leak detection system, diver detection sonar"
-}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -692,7 +692,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{"tags": "Data Management, Quality Assurance, AI classification, cloud-based, environmental_monitoring, data visualization"}</t>
+          <t>{
+  "Data Management": "Quality Assurance, Industrial IoT",
+  "Technology": "cloud-based, AI classification",
+  "Application": "environmental monitoring, ocean exploration"
+}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -719,7 +723,9 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, acoustic Doppler, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"}</t>
+          <t>{
+  "tags": "echo sounder system, sonar technology, acoustic Doppler, sensor fusion algorithms, scientific research, environmental monitoring"
+}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -746,7 +752,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{"tags": "marine survey, remote sensing, 3D sonar technology, acoustic telemetry link, AIS transponder, autonomous navigation"}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -773,7 +779,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{"tags": "Acoustic Control System, AIS transponder, underwater surveillance, remote sensing"}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -800,12 +806,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Autonomous Underwater Vehicle, 3D sonar technology, acoustic telemetry link, underwater surveillance, remote sensing, marine survey, oceanography, environmental monitoring, underwater resource studies, navy applications, commercial applications, seabed mapping, geophysical site inspection, pipeline inspection, subsea structure inspection, oceanographic surveys, environmental assessment, mine countermeasures, intelligence, surveillance, reconnaissance"
-}, {
-  "tags": "Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}, {"tags": "Autonomous Underwater Vehicle, sub-bottom sonar, advanced navigation system, low frequency transducers, pitch and roll stabilization, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"}, {"tags": "UAV, underwater, 3D sonar technology, advanced navigation system, HISAS, Sunstone, environmental monitoring, subsea mapping, marine survey, maritime surveillance"}, {
-  "tags": "Autonomous Underwater Vehicle, customizable payload, long endurance, maritime research support, autonomous maritime vehicle, remote vessel operation, USV hydroacoustic applications"
+          <t>{"tags": "AUV, advanced navigation system, HISAS, environmental monitoring, subsea mapping, marine survey"}, nan, {
+  "tags": "Autonomous Underwater Vehicle, customizable payload, long endurance, maritime research support, autonomous maritime vehicle"
+}, {"tags": "Sub-bottom profiler, Multibeam sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"}, {
+  "tags": "Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, low frequency transducers, seafloor mapping, geophysical survey"
 }</t>
         </is>
       </c>
@@ -834,11 +838,11 @@
       <c r="B15" t="inlineStr">
         <is>
           <t>{
-  "tags": "UAV, USVT, surface, underwater, 3D sonar technology, advanced navigation system, HISAS, Sunstone, environmental monitoring, subsea mapping, marine survey, maritime surveillance"
+  "tags": "Sub-bottom profiler, Multibeam sonar, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey"
+}, nan, {"tags": "Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, next generation obstacle avoidance sonar, geophysical survey, seafloor mapping"}, {
+  "tags": "AUV, underwater, 3D sonar technology, advanced navigation system, subsea mapping, marine survey"
 }, {
-  "tags": "Autonomous Underwater Vehicle, remote vessel operation, customizable payload, long endurance, maritime research support, autonomous maritime vehicle"
-}, {"tags": "3D sonar technology, autonomous navigation, underwater surveillance, remote sensing, marine survey, acoustic telemetry link"}, {"tags": "sub-bottom profiler, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey, oceanography, deep sea exploration"}, {
-  "tags": "Autonomous Underwater Vehicle, sub-bottom sonar, advanced navigation system, low frequency transducers, pitch and roll stabilization, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"
+  "tags": "Autonomous Underwater Vehicle, Diver Detection Sonar, remote vessel operation, customizable payload, long endurance, maritime research support"
 }</t>
         </is>
       </c>
@@ -866,7 +870,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{"tags": "Autonomous Underwater Vehicle, customizable payload, USV hydroacoustic applications, long endurance, maritime research support, autonomous maritime vehicle"}, {"tags": "Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"}, {"tags": "Autonomous Underwater Vehicle, sub-bottom sonar, advanced navigation system, low frequency transducers, pitch and roll stabilization, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"}, {"tags": "UAV, underwater, 3D sonar technology, advanced navigation system, HISAS, Sunstone, environmental monitoring, subsea mapping, marine survey, maritime surveillance"}, {"tags": "Autonomous Underwater Vehicle, acoustic telemetry link, underwater surveillance, marine survey, remote sensing"}</t>
+          <t>{
+  "tags": "AUV, underwater, HISAS, advanced navigation system, subsea mapping, maritime surveillance"
+}, nan, {"tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey"}, {"tags": "Autonomous Underwater Vehicle, USV hydroacoustic applications, long endurance, maritime research support"}, {
+  "product type": ["Autonomous Underwater Vehicle", "Sub-bottom profiler"],
+  "technology": ["advanced navigation system", "sub-bottom sonar"],
+  "application": ["geophysical survey", "seafloor mapping"]
+}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -893,15 +903,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Autonomous Underwater Vehicle, acoustic telemetry link, autonomous navigation, underwater surveillance, remote sensing, marine survey, 3D sonar technology, Leak Detection System, Diver Detection Sonar"
-}, {
-  "tags": "Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping, low frequency transducers, pitch and roll stabilization, Multibeam echosounder software, Underwater Altimeters"
-}, {"tags": "UAV, USVT, underwater, 3D sonar technology, advanced navigation system, HISAS, environmental monitoring, subsea mapping, marine survey, maritime surveillance"}, {
-  "tags": "Multibeam sonar, Side Scan Sonar, Single beam echo sounder, sub-bottom profiler, multibeam echosounder, sub-bottom profiling, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}, {
-  "tags": "Autonomous Underwater Vehicle, remote vessel operation, customizable payload, USV hydroacoustic applications, long endurance, maritime research support, autonomous maritime vehicle"
-}</t>
+          <t>{"tags": "AUV, HISAS, subsea mapping, environmental monitoring, marine survey, maritime surveillance"}, {"tags": "Multibeam sonar, Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey"}, {"tags": "Autonomous Underwater Vehicle, USV hydroacoustic applications, long endurance, maritime research support, autonomous maritime vehicle"}, nan, {"tags": "Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, sub-bottom sonar, seafloor mapping, geophysical survey"}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -929,9 +931,9 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>{
-  "tags": "Data Management, Cloud Storage, Industrial IoT, Quality Assurance, sensor_data_analysis, cloud-based, AI classification, Cyber Security, environmental_monitoring, ocean exploration, situational_awareness, data visualization"
+  "tags": "Navigation system, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration"
 }, {
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Cloud Storage, Industrial IoT, cloud-based, AI classification, environmental monitoring, data visualization"
 }</t>
         </is>
       </c>
@@ -959,7 +961,9 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{"tags": "Cloud Storage, Industrial IoT, Quality Assurance, sensor_data_analysis, cloud-based, AI classification, Cyber Security, data visualization"}</t>
+          <t>{
+  "tags": "Data Management, Cloud Storage, cloud-based, Cyber Security, data visualization, situational awareness"
+}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -986,7 +990,9 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{"tags": "GPS receiver, GNSS infrastructure, spoofing mitigation, marine GPS, vessel tracking, maritime navigation, environmental monitoring"}</t>
+          <t>{
+  "tags": "GPS receiver, IALA beacon receiver, GNSS infrastructure, spoofing mitigation, GPS, maritime navigation"
+}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1013,7 +1019,9 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{"tags": "Data Management, Cloud Storage, cloud-based, environmental_monitoring, ocean exploration, data visualization"}</t>
+          <t>{
+  "tags": "Data Management, Cloud Storage, cloud-based, AI classification, environmental monitoring, situational awareness"
+}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1040,9 +1048,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{"tags": "Autonomous Underwater Vehicle, Diver Detection Sonar, 3D sonar technology, underwater surveillance"}, {
-  "tags": "Diver Detection Sonar, remote vessel operation, USV hydroacoustic applications, long endurance, autonomous maritime vehicle"
-}</t>
+          <t>nan, {"tags": "Diver Detection Sonar, USV hydroacoustic applications, maritime research support, autonomous maritime vehicle"}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1069,9 +1075,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Autonomous Underwater Vehicle, 3D sonar technology, underwater surveillance, remote sensing, obstacle avoidance, pipeline survey, target detection, underwater construction support"
-}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1099,7 +1103,7 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
+  "tags": "Multibeam sonar, Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{"tags": "Autonomous Underwater Vehicle, 3D sonar technology, remote sensing, marine survey"}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1155,7 +1159,7 @@
       <c r="B26" t="inlineStr">
         <is>
           <t>{
-  "tags": "Side Scan Sonar, side-scan sonar, seafloor mapping, subsea survey, object detection, oceanography"
+  "tags": "Side Scan Sonar, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -1183,8 +1187,10 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{"tags": "Autonomous Underwater Vehicle, sub-bottom sonar, low frequency transducers, seafloor mapping, sediment layer mapping, geophysical survey"}, {
-  "tags": "Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey"
+          <t>{
+  "tags": "Sub-bottom profiler, low frequency transducers, geophysical survey, sediment layer mapping"
+}, {
+  "tags": "Sub-bottom profiler, Single beam echo sounder, sub-bottom profiling, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -1213,7 +1219,7 @@
       <c r="B28" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, side-scan sonar, seafloor mapping, subsea survey, oceanography"
+  "tags": "Single beam echo sounder, Side Scan Sonar, high-resolution sonar, sub-bottom profiling, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -1241,9 +1247,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, Multibeam sonar, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}</t>
+          <t>{"tags":["Single beam echo sounder","Multibeam sonar","high-resolution sonar","multibeam echosounder","seafloor mapping","subsea survey"]}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1270,7 +1274,9 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"}</t>
+          <t>{
+  "tags": "autonomous transceiver, oceanographic instrument, wideband technology, scientific research, environmental monitoring, fish stock assessment"
+}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1298,9 +1304,11 @@
       <c r="B31" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "echo sounder system": "scientific research, environmental monitoring",
+  "wideband technology": "GPS integrated system",
+  "fish stock assessment": "marine navigation"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "portable transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -1329,9 +1337,9 @@
       <c r="B32" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
 }, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, hydroacoustic synchronization, underwater survey, transceiver marine research, broadband sweeps"
+  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, environmental monitoring"
 }</t>
         </is>
       </c>
@@ -1360,9 +1368,11 @@
       <c r="B33" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echo sounder system, oceanographic instrument, wideband technology, acoustic Doppler, scientific research, fish stock assessment"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "product type": "software documentation, transceiver marine research",
+  "technology": "broadband sweeps, frequency adjustment",
+  "application": "fish finding, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -1391,7 +1401,7 @@
       <c r="B34" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, oceanography, high-resolution sonar, deep sea exploration"
+  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, oceanography, deep sea exploration"
 }</t>
         </is>
       </c>
@@ -1420,7 +1430,7 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>{
-  "tags": "multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, oceanography, high-resolution sonar"
+  "tags": "Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration"
 }</t>
         </is>
       </c>
@@ -1448,9 +1458,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, oceanography, portable hydrographic system, shallow water surveys, high-resolution sonar, KONGSBERG technology, bathymetric performance, IHO-S44, LINZ specification, frequency modulated pulses, roll and pitch stabilisation, yaw stabilisation, near field focusing, extra detections"
-}</t>
+          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, oceanography"}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1478,7 +1486,7 @@
       <c r="B37" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"
+  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -1506,9 +1514,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}</t>
+          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, high-resolution sonar"}</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1536,7 +1542,7 @@
       <c r="B39" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, oceanography, high-resolution sonar"
+  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, high-resolution sonar, oceanography"
 }</t>
         </is>
       </c>
@@ -1564,7 +1570,9 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"}</t>
+          <t>{
+  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey"
+}</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1591,9 +1599,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}</t>
+          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"}</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1621,7 +1627,7 @@
       <c r="B42" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"
+  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration"
 }</t>
         </is>
       </c>
@@ -1650,7 +1656,9 @@
       <c r="B43" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey"
+  "product type": ["Multibeam sonar", "Single beam echo sounder"],
+  "technology": ["multibeam echosounder"],
+  "application": ["seafloor mapping", "subsea survey"]
 }</t>
         </is>
       </c>
@@ -1678,9 +1686,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}</t>
+          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"}</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1708,7 +1714,7 @@
       <c r="B45" t="inlineStr">
         <is>
           <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, oceanography, shallow water application, depth monitoring, bottom profile visualization, sediment analysis, hazard detection, waterway monitoring, dredging operations support, environmental study"
+  "tags": "Single beam echo sounder, Sub-bottom profiler, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -1737,7 +1743,7 @@
       <c r="B46" t="inlineStr">
         <is>
           <t>{
-  "tags": "acoustic Doppler, GPS integrated system, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "oceanographic instrument, acoustic Doppler, environmental monitoring, marine navigation"
 }</t>
         </is>
       </c>
@@ -1766,7 +1772,7 @@
       <c r="B47" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -1795,7 +1801,7 @@
       <c r="B48" t="inlineStr">
         <is>
           <t>{
-  "Tags": "GPS receiver, inertial sensor, sensor fusion compatible, marine GPS, vessel tracking, maritime navigation, GNSS infrastructure, spoofing mitigation"
+  "tags": "GPS receiver, inertial sensor, GNSS infrastructure, sensor fusion compatible, maritime navigation, vessel tracking"
 }</t>
         </is>
       </c>
@@ -1823,9 +1829,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, inertial sensor, GNSS infrastructure, spoofing mitigation, sensor fusion compatible, marine GPS, vessel tracking, maritime navigation, environmental monitoring"
-}</t>
+          <t>{"product type": "GPS receiver, inertial sensor", "technology": "GNSS infrastructure, spoofing mitigation", "application": "vessel tracking, maritime navigation"}</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1853,7 +1857,7 @@
       <c r="B50" t="inlineStr">
         <is>
           <t>{
-  "tags": "GPS receiver, inertial sensor, marine GPS, vessel tracking, maritime navigation, GNSS infrastructure, spoofing mitigation, sensor fusion compatible"
+  "tags": "GPS receiver, inertial sensor, GNSS infrastructure, sensor fusion compatible, maritime navigation, vessel tracking"
 }</t>
         </is>
       </c>
@@ -1881,9 +1885,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, inertial sensor, IALA beacon receiver, GNSS infrastructure, spoofing mitigation, sensor fusion compatible, marine GPS, vessel tracking, maritime navigation, environmental monitoring"
-}</t>
+          <t>{"tags": "GPS receiver, IALA beacon receiver, sensor fusion compatible, GNSS infrastructure, GPS, maritime navigation"}</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1911,7 +1913,7 @@
       <c r="B52" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Positioning system, Navigation system, Inertial Measurement Unit, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
 }</t>
         </is>
       </c>
@@ -1939,9 +1941,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{
-  "tags": "high-resolution sonar, subsea survey, oceanography, seafloor mapping"
-}</t>
+          <t>{"tags": "High-resolution sonar, Side Scan Sonar, seafloor mapping, subsea survey"}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1969,7 +1969,7 @@
       <c r="B54" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, ROV integration, subsea survey"
+  "tags": "Positioning system, Navigation system, Hydroacoustic Positioning, acoustic telemetry, dynamic positioning reference, ROV integration"
 }</t>
         </is>
       </c>
@@ -1997,9 +1997,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{
-  "tags": "remote sensing, autonomous navigation, acoustic telemetry link, AIS transponder, marine survey"
-}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2027,7 +2025,7 @@
       <c r="B56" t="inlineStr">
         <is>
           <t>{
-  "tags": "Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Positioning system,Navigation system,acoustic telemetry,Hydroacoustic Positioning,underwater communication,ROV integration"
 }</t>
         </is>
       </c>
@@ -2056,7 +2054,7 @@
       <c r="B57" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, subsea survey"
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
 }</t>
         </is>
       </c>
@@ -2084,7 +2082,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{"tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration"}</t>
+          <t>{
+  "product type": "Positioning system, Navigation system",
+  "technology": "acoustic telemetry, Hydroacoustic Positioning",
+  "application": "dynamic positioning reference, ROV integration"
+}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2111,9 +2113,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration"
-}</t>
+          <t>{"tags": "Portable Acoustic Positioning system, Navigation system, acoustic telemetry, Inertial Measurement Unit, dynamic positioning reference, subsea survey"}</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2140,9 +2140,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
-}</t>
+          <t>{"tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"}</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2170,7 +2168,7 @@
       <c r="B61" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, ROV integration"
 }</t>
         </is>
       </c>
@@ -2198,9 +2196,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
-}</t>
+          <t>{"Positioning system,Navigation system,acoustic telemetry,Hydroacoustic Positioning,dynamic positioning reference,underwater communication"  : []}</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2228,7 +2224,7 @@
       <c r="B63" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
 }</t>
         </is>
       </c>
@@ -2256,9 +2252,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
-}</t>
+          <t>{"tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"}</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2285,7 +2279,9 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{"tags": "Transponder, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"}</t>
+          <t>{
+  "tags": "Positioning system, Navigation system, Inertial Measurement Unit, Hydroacoustic Positioning, ROV integration, subsea survey"
+}</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2313,7 +2309,7 @@
       <c r="B66" t="inlineStr">
         <is>
           <t>{
-  "tags": "Navigation system, Modem, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey, dynamic positioning reference"
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
 }</t>
         </is>
       </c>
@@ -2341,11 +2337,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{
-  "tags": "underwater surveillance, marine survey, autonomous navigation, remote sensing"
+          <t>nan, {
+  "tags": "surface, underwater, advanced navigation system, Sunstone, maritime surveillance, Situational Awareness"
 }, {
-  "tags": "marine survey, maritime surveillance, advanced navigation system"
-}, {"tags": "sensor fusion compatible, augmented reality, marine GPS, vessel tracking, maritime navigation"}</t>
+  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, maritime navigation, Situational Awareness"
+}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2372,7 +2368,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{"tags": "GPS receiver, inertial sensor, marine_echo_sounder, GNSS infrastructure, spoofing mitigation, sensor fusion compatible, augmented reality, marine GPS, vessel tracking, maritime navigation, environmental monitoring"}, {"tags": "3D sonar technology, acoustic telemetry link, AIS transponder, autonomous navigation, underwater surveillance, remote sensing, marine survey"}, {"tags": "USVT, advanced navigation system, HISAS, environmental monitoring, subsea mapping, marine survey, maritime surveillance"}</t>
+          <t>nan, {
+  "product type": "surface, USV",
+  "technology": "advanced navigation system, HISAS",
+  "application": "maritime surveillance, environmental monitoring"
+}, {
+  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, maritime navigation, vessel tracking"
+}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2399,7 +2401,9 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{"tags": "marine GPS, vessel tracking, maritime navigation, environmental monitoring, sensor fusion compatible, GNSS infrastructure, spoofing mitigation"}</t>
+          <t>{
+  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, GPS, maritime navigation"
+}</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2427,7 +2431,7 @@
       <c r="B70" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, oceanography, fishery research, high-resolution sonar, bathymetry, side-scan sonar"
+  "tags": "Multibeam sonar, Single beam echo sounder, multibeam echosounder, high-resolution sonar, seafloor mapping, oceanography"
 }</t>
         </is>
       </c>
@@ -2456,7 +2460,9 @@
       <c r="B71" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography, fishery research, biomass estimation, fish school characterization, acoustic matrix, beamforming, horizontal transmission, stable beams, remote sensing, quantitative analysis, data acquisition, high-resolution sonar"
+  "Multibeam sonar": "multibeam echosounder, fishery research applications",
+  "Technology": "beamforming software, real-time data acquisition",
+  "Application": "seafloor mapping, biomass estimation"
 }</t>
         </is>
       </c>
@@ -2485,7 +2491,9 @@
       <c r="B72" t="inlineStr">
         <is>
           <t>{
-  "tags": "marine GPS, vessel tracking, maritime navigation, environmental monitoring, GNSS infrastructure, spoofing mitigation, sensor fusion compatible, augmented reality"
+  "product type": "inertial sensor, marine echo sounder",
+  "technology": "sensor fusion compatible, spoofing mitigation",
+  "application": "vessel tracking, maritime navigation"
 }</t>
         </is>
       </c>
@@ -2514,7 +2522,7 @@
       <c r="B73" t="inlineStr">
         <is>
           <t>{
-  "tags": "inertial sensor, sensor fusion compatible, environmental monitoring, vessel tracking, maritime navigation"
+  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, vessel tracking, maritime navigation"
 }</t>
         </is>
       </c>
@@ -2542,7 +2550,9 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{"tags": "Modem, Radio, surface, transceiver, VDES technology, maritime communication, navigation systems, Hydrography, Surveillance, Marine operations, Remote control, Autonomous, Inspection, Tandem lifting, Oil spill response, Remote sensing, Rig move, Wide azimuth, Fish farming, Seismic operations, Offshore loading"}</t>
+          <t>{
+  "tags": "Radio, Modem, VDES technology, reconfigurable SDR, maritime communication, navigation systems"
+}</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2569,7 +2579,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{"tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"}</t>
+          <t>{
+  "product type": "Positioning system, Navigation system",
+  "technology": "acoustic telemetry, Hydroacoustic Positioning",
+  "application": "underwater communication, ROV integration"
+}</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2596,7 +2610,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{"tags": "Leak Detection System, acoustic telemetry link, underwater surveillance, remote sensing"}</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2624,7 +2638,7 @@
       <c r="B77" t="inlineStr">
         <is>
           <t>{
-  "tags": "Motion Reference Unit, Navigation Simulation, inertial measurement, MEMS gyro, motion sensor, attitude determination, sensor data optimization, post-processing analysis, marine navigation, motion compensation"
+  "tags": "Motion Reference Unit, MEMS gyro, motion sensor, marine navigation, motion compensation, attitude determination"
 }</t>
         </is>
       </c>
@@ -2653,7 +2667,7 @@
       <c r="B78" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography, search and recovery, marine engineering, site inspection, environmental monitoring, site clearance, underwater science"
+  "tags": "Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, marine engineering, environmental monitoring"
 }</t>
         </is>
       </c>
@@ -2682,7 +2696,9 @@
       <c r="B79" t="inlineStr">
         <is>
           <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography, high-resolution sonar, side-scan sonar, sub-bottom profiling"
+  "Multibeam sonar": "Multibeam sonar",
+  "Technology": "multibeam echosounder, high-resolution sonar",
+  "Application": "seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -2711,10 +2727,8 @@
       <c r="B80" t="inlineStr">
         <is>
           <t>{
-  "tags": "navigation simulation, motion compensation, sensor data optimization, post-processing analysis, inertial measurement, MEMS gyro, motion sensor, attitude determination"
-}, {
-  "tags": "Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
-}</t>
+  "tags": "Navigation Simulation, inertial measurement, post-processing analysis, marine navigation"
+}, {"tags": "Navigation system, Positioning system, Inertial Measurement Unit, Hydroacoustic Positioning, underwater communication, subsea survey"}</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2742,7 +2756,7 @@
       <c r="B81" t="inlineStr">
         <is>
           <t>{
-  "tags": "GPS receiver, inertial sensor, IALA beacon receiver, GNSS infrastructure, spoofing mitigation, sensor fusion compatible, augmented reality, marine GPS, vessel tracking, maritime navigation, environmental monitoring"
+  "tags": "inertial sensor, GPS receiver, sensor fusion compatible, spoofing mitigation, maritime navigation, vessel tracking"
 }</t>
         </is>
       </c>
@@ -2771,9 +2785,11 @@
       <c r="B82" t="inlineStr">
         <is>
           <t>{
-  "tags": "Navigation system, Modem, dynamic positioning reference, subsea survey"
+  "tags": "Navigation system, Positioning system, Hydroacoustic Positioning, acoustic telemetry, underwater communication, subsea survey"
 }, {
-  "tags": "Cloud Storage, Industrial IoT, Quality Assurance, sensor_data_analysis, cloud-based, data visualization, environmental_monitoring, situational_awareness"
+  "Data Management": "Industrial IoT, Cloud Storage",
+  "Technology": "cloud-based, sensor data analysis",
+  "Application": "situational awareness, data visualization"
 }</t>
         </is>
       </c>
@@ -2802,7 +2818,7 @@
       <c r="B83" t="inlineStr">
         <is>
           <t>{
-    "tags": "portable transducer, echosounder transducer, fish finding, hydroacoustic synchronization"
+  "tags": "portable transducer, echosounder transducer, split-beam transducer, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -2830,7 +2846,9 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{"tags": "portable transducer, echosounder transducer, fish stock assessment, underwater survey"}</t>
+          <t>{
+  "tags": "portable transducer, echosounder transducer, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization"
+}</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2857,7 +2875,9 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{"tags": "portable transducer,echosounder transducer,transceiver marine research,split-beam transducer,dual frequency,fish finding,hydroacoustic synchronization,fish stock assessment,underwater survey"}</t>
+          <t>{
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, hydroacoustic synchronization"
+}</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2885,7 +2905,7 @@
       <c r="B86" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, fish finding, hydroacoustic synchronization"
+  "tags": "echosounder transducer, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -2914,7 +2934,7 @@
       <c r="B87" t="inlineStr">
         <is>
           <t>{
-  "tags": "multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography, port and channel inspection, hydrographic system, 3D bathymetric datasets, INS/GNSS System, IHO compliance, engineering inspection, shallow water surveys, pipeline surveys, dredge monitoring"
+  "tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -2943,7 +2963,7 @@
       <c r="B88" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"
+  "tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -2972,7 +2992,7 @@
       <c r="B89" t="inlineStr">
         <is>
           <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, oceanography"
+  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -3001,7 +3021,7 @@
       <c r="B90" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
 }</t>
         </is>
       </c>
@@ -3029,11 +3049,10 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Autonomous Underwater Vehicle, Multibeam echosounder software, Underwater Altimeters, sub-bottom sonar, advanced navigation system, low frequency transducers, pitch and roll stabilization, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"
-}, {
-  "tags": "multibeam sonar, multibeam echosounder, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography, Windows 10 64-bit, Hydrographic Work Station, maritime-certified, software license, data quality control, real-time monitoring, tide corrections, 3D display, seafloor backscatter, sensor input monitoring, survey planning, S-57 charts, EM multibeam echo sounder systems, remote operation, real-time Digital Terrain Model, sonar head sound speed, sound speed profile, post-processing, health testing, multibeam system control, training, hydrographic survey, data visualization, water column analysis, enhanced functionality"
-}</t>
+          <t>{"product type": "Multibeam sonar", "technology": "multibeam echosounder", "application": "seafloor mapping"}, {"Multibeam echosounder software," 
+ 	: ", pitch and roll stabilization," 
+ 	,"seafloor mapping," 
+ 	:"geophysical survey"}</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3060,7 +3079,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{"tags": "Data Management, Cloud Storage, Industrial IoT, Quality Assurance, sensor_data_analysis, cloud-based, AI classification, environmental_monitoring, ocean exploration, situational_awareness, data visualization"}</t>
+          <t>{
+  "product type": "Data Management, Industrial IoT",
+  "technology": "sensor data analysis, cloud-based",
+  "application": "environmental monitoring, data visualization"
+}</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3088,7 +3111,7 @@
       <c r="B93" t="inlineStr">
         <is>
           <t>{
-  "tags": "Cloud Storage, Industrial IoT, Quality Assurance, cloud-based, AI classification, Cyber Security, environmental_monitoring, situational_awareness, data visualization"
+  "tags": "Industrial IoT, Quality Assurance, cloud-based, sensor data analysis, situational awareness, data visualization"
 }</t>
         </is>
       </c>
@@ -3116,7 +3139,9 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{"tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"}</t>
+          <t>{
+  "tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"
+}</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3144,7 +3169,7 @@
       <c r="B95" t="inlineStr">
         <is>
           <t>{
-  "tags": "Side Scan Sonar, high-resolution sonar, seafloor mapping, subsea survey, oceanography"
+  "tags": "Side Scan Sonar, Single beam echo sounder, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -3173,7 +3198,7 @@
       <c r="B96" t="inlineStr">
         <is>
           <t>{
-  "tags": "Side Scan Sonar, side-scan sonar, seafloor mapping, subsea survey, oceanography"
+  "tags": "Side Scan Sonar, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -3202,11 +3227,13 @@
       <c r="B97" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, sonar_technology, wideband_technology, split-beam transducer, scientific research, environmental monitoring, deep water measurements, marine navigation"
+  "product type": "echo sounder system, sonar technology",
+  "technology": "split-beam transducer",
+  "application": "scientific research, deep water measurements"
 }, {
-  "tags": "portable transducer, echosounder transducer, dual frequency, fish finding, underwater survey"
+  "tags": "echosounder transducer, split-beam transducer, fish finding, underwater survey"
 }, {
-  "tags": "Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
+  "tags": "Single beam echo sounder, Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, deep sea exploration"
 }</t>
         </is>
       </c>
@@ -3235,7 +3262,7 @@
       <c r="B98" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, fish finding, single-beam transducer, deepwater operation, high power pulse, robust construction"
+  "tags": "echosounder transducer, single-beam transducer, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3264,7 +3291,7 @@
       <c r="B99" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, deep water measurements, frequency adjustment, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3293,7 +3320,7 @@
       <c r="B100" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, single-beam transducer, frequency adjustment, fish finding, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3322,7 +3349,7 @@
       <c r="B101" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, dual frequency, fish finding, hydroacoustic synchronization, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3351,7 +3378,7 @@
       <c r="B102" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, fish finding, hydroacoustic synchronization, underwater survey, 200 kHz, portable use"
+  "tags": "portable transducer, echosounder transducer, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3380,7 +3407,7 @@
       <c r="B103" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, split-beam transducer, fish finding, hydroacoustic synchronization, dual frequency, underwater survey, transceiver marine research"
+  "tags": "echosounder transducer, transducer marine research, frequency adjustment, narrow beam, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3409,7 +3436,12 @@
       <c r="B104" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "echosounder transducer": "Simrad 38-9",
+  "transceiver marine research": "Simrad 38-9",
+  "split-beam transducer": "Simrad 38-9",
+  "fish finding": "Simrad 38-9",
+  "hydroacoustic synchronization": "Simrad 38-9",
+  "underwater survey": "Simrad 38-9"
 }</t>
         </is>
       </c>
@@ -3437,9 +3469,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization, underwater survey"
-}</t>
+          <t>{"echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey" : "tags"}</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3467,7 +3497,7 @@
       <c r="B106" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3496,7 +3526,7 @@
       <c r="B107" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, dual frequency, fish finding"
+  "tags": "echosounder transducer, dual frequency, fish finding, bottom discrimination, through hull mounting, discontinued product"
 }</t>
         </is>
       </c>
@@ -3524,9 +3554,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, fish finding, hydroacoustic synchronization, underwater survey"
-}</t>
+          <t>{"tags": "echosounder transducer, transceiver marine research, fish finding, underwater survey"}</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3554,7 +3582,7 @@
       <c r="B109" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, fish finding, underwater survey, single beam, hydroacoustic synchronization"
+  "tags": "portable transducer, echosounder transducer, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3583,7 +3611,7 @@
       <c r="B110" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, fish finding, single-beam transducer, hull mounted, frequency: 50 kHz, circular beamwidth: 7°, Tonpilz elements, marine research"
+  "tags": "echosounder transducer, fish finding, single-beam transducer, hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -3611,9 +3639,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, dual frequency, fish finding, fish stock assessment, underwater survey"
-}</t>
+          <t>{"tags": "echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey"}</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3641,7 +3667,8 @@
       <c r="B112" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, fish finding, hydroacoustic synchronization, dual frequency"
+  "echosounder transducer": "dual frequency",
+  "fish finding": "hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -3670,8 +3697,10 @@
       <c r="B113" t="inlineStr">
         <is>
           <t>{
-  "tags": "Modem, Radio, surface, transceiver, maritime communication, navigation systems"
-}, {"tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"}</t>
+  "tags": "Radio, Modem, VDES technology, reconfigurable SDR, maritime communication, navigation systems"
+}, {
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
+}</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3699,11 +3728,11 @@
       <c r="B114" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
-}, {"tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"}, {
-  "tags": "echo sounder system, wideband_technology, scientific research, environmental monitoring, fish stock assessment, marine navigation, acoustic Doppler, GPS integrated system, split-beam transducer"
+  "tags": "echosounder transducer, broadband sweeps, fish finding, underwater survey"
 }, {
-  "tags": "portable transducer, echosounder transducer, dual frequency, broadband sweeps, fish finding, underwater survey"
+  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
+}, {
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -3731,12 +3760,10 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, oceanography"
+          <t>{"tags": "Multibeam echosounder software, Underwater Altimeters, advanced navigation system, pitch and roll stabilization, geophysical survey, seafloor mapping"}, {
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
 }, {
-  "tags": "portable transducer, echosounder transducer, dual frequency, fish finding, hydroacoustic synchronization, underwater survey"
-}, {
-  "tags": "Autonomous Underwater Vehicle, Multibeam echosounder software, advanced navigation system, seafloor mapping, deep-sea exploration, geophysical survey"
+  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -3765,7 +3792,7 @@
       <c r="B116" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, dual frequency, fish finding, underwater survey, hydroacoustic synchronization, fish stock assessment"
+  "tags": "echosounder transducer, transceiver marine research, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -3794,7 +3821,7 @@
       <c r="B117" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, transceiver marine research, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -3822,7 +3849,9 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"}</t>
+          <t>{
+  "tags": "echo sounder system, oceanographic instrument, acoustic Doppler, split-beam transducer, scientific research, environmental monitoring"
+}</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3849,7 +3878,9 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>{"tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"}</t>
+          <t>{
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, fish stock assessment"
+}</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3876,7 +3907,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>{"tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"}</t>
+          <t>{
+  "product type": "echosounder transducer, transceiver marine research",
+  "technology": "split-beam transducer, dual frequency",
+  "application": "fish finding, fish stock assessment"
+}</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3904,10 +3939,8 @@
       <c r="B121" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization, underwater survey, transceiver marine research"
-}, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
-}</t>
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
+}, {"tags": "oceanographic instrument, autonomous transceiver, wideband technology, split-beam transducer, scientific research, environmental monitoring"}</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3935,9 +3968,9 @@
       <c r="B122" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, fish stock assessment, underwater survey"
 }</t>
         </is>
       </c>
@@ -3966,8 +3999,8 @@
       <c r="B123" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
-}, {"tags": "echo sounder system, sonar_technology, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"}</t>
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"
+}, {"tags": "echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, environmental monitoring"}</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3995,8 +4028,10 @@
       <c r="B124" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, fish finding, deep water installation, hydroacoustic synchronization, fish stock assessment, underwater survey, dual frequency"
-}, {"tags": "echo sounder system, sonar_technology, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"}</t>
+  "tags": "echosounder transducer, split-beam transducer, fish finding, deep water installations"
+}, {
+  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
+}</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4023,11 +4058,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, split-beam transducer, fish finding, underwater survey, dual frequency"
-}, {
-  "tags": "echo sounder system, split-beam transducer, wideband_technology, scientific research, environmental monitoring, fish stock assessment, marine navigation"
-}</t>
+          <t>{"tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"}, {"product_type": "echosounder transducer, portable transducer", "technology": "split-beam transducer", "application": "fish finding, underwater survey"}</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4054,9 +4085,9 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"}, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, underwater survey, hydroacoustic synchronization"
-}</t>
+          <t>{
+  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, deep water measurements"
+}, {"tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"}</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4084,9 +4115,9 @@
       <c r="B127" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, fish finding, fish stock assessment"
 }, {
-  "tags": "echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4115,9 +4146,9 @@
       <c r="B128" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"
 }, {
-  "tags": "portable transducer, split-beam transducer, dual frequency, broadband sweeps, fish finding, fish stock assessment, underwater survey"
+  "tags": "oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4146,9 +4177,9 @@
       <c r="B129" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
 }, {
-  "tags": "echosounder transducer, split-beam transducer, dual frequency, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey, portable transducer"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4177,9 +4208,9 @@
       <c r="B130" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
+  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
 }, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey, software documentation"
+  "tags": "echosounder transducer, marine research, split-beam transducer, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4207,10 +4238,8 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
-}, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, underwater survey"
+          <t>{"tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey"}, {
+  "tags": "oceanographic instrument, sonar technology, split-beam transducer, wideband technology, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4238,10 +4267,8 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, frequency adjustment, fish finding, hydroacoustic synchronization, underwater survey"
-}, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+          <t>{"tags": "echo sounder system, autonomous transceiver, split-beam transducer, scientific research, environmental monitoring"}, {
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4270,9 +4297,9 @@
       <c r="B133" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, sonar_technology, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, hydroacoustic synchronization, underwater survey"
 }, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, underwater survey"
+  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4301,9 +4328,9 @@
       <c r="B134" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "echo sounder system, sonar technology, acoustic Doppler, scientific research, fish stock assessment, environmental monitoring"
 }, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4332,9 +4359,9 @@
       <c r="B135" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, frequency adjustment, fish finding, hydroacoustic synchronization, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "echo sounder system, autonomous transceiver, split-beam transducer, acoustic Doppler, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4363,9 +4390,9 @@
       <c r="B136" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonoumous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation, GPS integrated system, acoustic Doppler"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
 }, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4394,10 +4421,8 @@
       <c r="B137" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
-}, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, fish stock assessment, underwater survey"
-}</t>
+  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment, environmental monitoring"
+}, {"echosounder transducer, marine research, split-beam transducer, fish finding, hydroacoustic synchronization, fish stock assessment"  : true}</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4424,9 +4449,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, wideband_technology, split-beam transducer, scientific research, fish stock assessment, marine navigation"}, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, fish stock assessment, underwater survey"
-}</t>
+          <t>{"tags": "echosounder transducer, marine research, split-beam transducer, fish finding, fish stock assessment, underwater survey"}, {"tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment"}</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4454,9 +4477,9 @@
       <c r="B139" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, fish finding, underwater survey, dual frequency"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
 }, {
-  "tags": "echo sounder system, sonar_technology, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
+  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4484,10 +4507,8 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, split-beam transducer, fish finding, fish stock assessment"
+          <t>{"tags": "echosounder transducer, marine research, split-beam transducer, fish finding, fish stock assessment"}, {
+  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4516,10 +4537,8 @@
       <c r="B141" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
-}, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
-}</t>
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, fish stock assessment"
+}, {"tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment, marine navigation"}</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4547,9 +4566,9 @@
       <c r="B142" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "sonar technology, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
 }, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, single-beam transducer, fish finding, underwater survey, dual frequency, frequency adjustment"
+  "tags": "echosounder transducer, marine research, split-beam transducer, fish finding, hydroacoustic synchronization, underwater survey"
 }</t>
         </is>
       </c>
@@ -4578,9 +4597,9 @@
       <c r="B143" t="inlineStr">
         <is>
           <t>{
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "oceanographic instrument, split-beam transducer, scientific research, environmental monitoring"
 }, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, underwater survey, transceiver marine research"
+  "tags": "echosounder transducer, marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4609,9 +4628,9 @@
       <c r="B144" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echo sounder system, split-beam transducer, scientific research, fish stock assessment"
 }, {
-  "tags": "echo sounder system, sonar_technology, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4639,8 +4658,8 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, autonomous transceiver, sonar_technology, wideband_technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"}, {
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+          <t>{"tags": "echosounder transducer, split-beam transducer, fish finding, underwater survey"}, {
+  "tags": "sonar technology, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4669,9 +4688,9 @@
       <c r="B146" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echo sounder system, sonar technology, wideband technology, acoustic Doppler, scientific research, fish stock assessment"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4700,7 +4719,7 @@
       <c r="B147" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -4729,7 +4748,7 @@
       <c r="B148" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, software documentation, split-beam transducer, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -4757,7 +4776,9 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>{"tags": "portable transducer, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, hydroacoustic synchronization, fish stock assessment, underwater survey, fish finding"}</t>
+          <t>{
+  "tags": "echosounder transducer, transceiver marine research, dual frequency, hydroacoustic synchronization, fish finding, underwater survey"
+}</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4785,7 +4806,7 @@
       <c r="B150" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4814,7 +4835,9 @@
       <c r="B151" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "product type": "echosounder transducer, transceiver marine research",
+  "technology": "broadband sweeps, frequency adjustment",
+  "application": "fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4843,7 +4866,7 @@
       <c r="B152" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, underwater survey, software documentation"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -4871,7 +4894,9 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>{"tags": "software documentation, hydroacoustic synchronization, frequency adjustment"}</t>
+          <t>{
+  "tags": "software documentation, transceiver marine research, frequency adjustment, fish finding, hydroacoustic synchronization"
+}</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4898,7 +4923,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>{"tags": "portable transducer, software documentation, echosounder transducer, split-beam transducer, dual frequency, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"}</t>
+          <t>{"tags": "transceiver marine research, echosounder transducer, frequency adjustment, broadband sweeps, fish finding, underwater survey"}</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4925,9 +4950,9 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
-}, {"tags": "portable transducer, software documentation, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment"}</t>
+          <t>{"tags": "software documentation, transceiver marine research, frequency adjustment, hydroacoustic synchronization, fish finding, underwater survey"}, {
+  "tags": "software documentation, sensor programming cable, fish finding, fish stock assessment"
+}</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4955,7 +4980,7 @@
       <c r="B156" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, software documentation, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -4984,7 +5009,9 @@
       <c r="B157" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, transceiver marine research, split-beam transducer, dual frequency, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "product type": "software documentation, echosounder transducer",
+  "technology": "broadband sweeps, frequency adjustment",
+  "application": "fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -5013,7 +5040,7 @@
       <c r="B158" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey, dual frequency, frequency adjustment"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -5042,7 +5069,9 @@
       <c r="B159" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "product type": "echosounder transducer, transceiver marine research",
+  "technology": "split-beam transducer, frequency adjustment",
+  "application": "fish finding, hydroacoustic synchronization"
 }</t>
         </is>
       </c>
@@ -5071,7 +5100,7 @@
       <c r="B160" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -5100,7 +5129,7 @@
       <c r="B161" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment"
+  "tags": "echosounder transducer, software documentation, broadband sweeps, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -5128,7 +5157,9 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>{"tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"}</t>
+          <t>{
+  "tags": "echosounder transducer, transceiver marine research, dual frequency, broadband sweeps, fish finding, underwater survey"
+}</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5156,7 +5187,7 @@
       <c r="B163" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, frequency adjustment, broadband sweeps, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -5185,7 +5216,9 @@
       <c r="B164" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "echosounder transducer": "fish finding",
+  "transceiver marine research": "broadband sweeps",
+  "fish finding": "underwater survey"
 }</t>
         </is>
       </c>
@@ -5214,7 +5247,7 @@
       <c r="B165" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -5243,7 +5276,7 @@
       <c r="B166" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, frequency adjustment, fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -5272,7 +5305,9 @@
       <c r="B167" t="inlineStr">
         <is>
           <t>{
-  "tags": "echosounder transducer, fish stock assessment, fish finding, underwater survey, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, hydroacoustic synchronization"
+  "product type": "echosounder transducer, transceiver marine research",
+  "technology": "frequency adjustment, broadband sweeps",
+  "application": "fish finding, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -5301,7 +5336,9 @@
       <c r="B168" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, software documentation, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "product type": "echosounder transducer, transceiver marine research",
+  "technology": "frequency adjustment, broadband sweeps",
+  "application": "fish finding, underwater survey"
 }</t>
         </is>
       </c>
@@ -5329,9 +5366,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, underwater survey"
-}</t>
+          <t>{"tags": "echosounder transducer, transceiver marine research, frequency adjustment, fish finding, fish stock assessment, underwater survey"}</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5358,9 +5393,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment"
-}</t>
+          <t>{"tags": "echosounder transducer, transceiver marine research, frequency adjustment, hydroacoustic synchronization, fish finding, underwater survey"}</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5387,9 +5420,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, software documentation, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment"
-}</t>
+          <t>{"product type": "echosounder transducer, transceiver marine research", "technology": "frequency adjustment, broadband sweeps", "application": "fish finding, hydroacoustic synchronization"}</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5417,7 +5448,7 @@
       <c r="B172" t="inlineStr">
         <is>
           <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, oceanography"
+  "tags": "Single beam echo sounder, Side Scan Sonar, high-resolution sonar, sub-bottom profiling, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5446,7 +5477,9 @@
       <c r="B173" t="inlineStr">
         <is>
           <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
+  "Single beam echo sounder": "Single beam echo sounder",
+  "Technology": "high-resolution sonar",
+  "Application": "seafloor mapping, deep sea exploration"
 }</t>
         </is>
       </c>
@@ -5475,7 +5508,7 @@
       <c r="B174" t="inlineStr">
         <is>
           <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, oceanography, subsea survey"
+  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5504,7 +5537,7 @@
       <c r="B175" t="inlineStr">
         <is>
           <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, oceanography"
+  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5533,7 +5566,7 @@
       <c r="B176" t="inlineStr">
         <is>
           <t>{
-  "tags": "Side Scan Sonar, side-scan sonar, seabed mapping, subsea survey, oceanography"
+  "tags": "Side Scan Sonar, Multibeam sonar, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5561,7 +5594,9 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>{"tags": "sonar software, underwater mapping, navigation systems"}</t>
+          <t>{
+  "tags": "sonar software, subsea, underwater mapping, navigation systems"
+}</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5589,9 +5624,9 @@
       <c r="B178" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey, oceanography"
+  "tags": "Sub-bottom profiler, sub-bottom sonar, seafloor mapping, geophysical survey"
 }, {
-  "tags": "Sub-bottom profiler, sub-bottom sonar, geophysical survey, sediment layer mapping"
+  "tags": "Sub-bottom profiler, GeoPulse, sub-bottom profiling, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5620,8 +5655,12 @@
       <c r="B179" t="inlineStr">
         <is>
           <t>{
-  "tags": "sub-bottom sonar, sediment layer mapping, geophysical survey, Sub-bottom profiler"
-}, {"tags": "Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey, deep sea exploration, oceanography"}</t>
+  "product type": "Sub-bottom profiler",
+  "technology": "sub-bottom profiling",
+  "application": "seafloor mapping, subsea survey"
+}, {
+  "tags": "Sub-bottom profiler, low frequency transducers, geophysical survey, sediment layer mapping"
+}</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5649,9 +5688,11 @@
       <c r="B180" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, sub-bottom sonar, low frequency transducers, pitch and roll stabilization, seafloor mapping, sediment layer mapping, deep-sea exploration, geophysical survey"
+  "product type": ["Sub-bottom profiler"],
+  "technology": ["sub-bottom sonar", "pitch and roll stabilization"],
+  "application": ["seafloor mapping", "geophysical survey"]
 }, {
-  "tags": "Sub-bottom profiler, Multibeam sonar, multibeam echosounder, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
+  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, multibeam echosounder, seafloor mapping, deep sea exploration"
 }</t>
         </is>
       </c>
@@ -5679,10 +5720,8 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}, {
-  "tags": "Autonomous Underwater Vehicle, Underwater Altimeters, sub-bottom sonar, advanced navigation system, low frequency transducers, pitch and roll stabilization, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"
+          <t>{"tags": "Sub-bottom profiler, low frequency transducers, geophysical survey, sediment layer mapping, seafloor mapping"}, {
+  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5711,9 +5750,9 @@
       <c r="B182" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey, high-resolution sonar, deep sea exploration, oceanography"
+  "tags": "Sub-bottom profiler, Multibeam echosounder software, sub-bottom sonar, low frequency transducers, geophysical survey, sediment layer mapping"
 }, {
-  "tags": "Sub-bottom profiler, sub-bottom sonar, advanced navigation system, seafloor mapping, geophysical survey, sediment layer mapping"
+  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5742,9 +5781,9 @@
       <c r="B183" t="inlineStr">
         <is>
           <t>{
-  "tags": "Autonomous Underwater Vehicle, sub-bottom sonar, advanced navigation system, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"
+  "tags": "Sub-bottom profiler, low frequency transducers, seafloor mapping, geophysical survey, sediment layer mapping"
 }, {
-  "tags": "Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey, deep sea exploration, high-resolution sonar, oceanography"
+  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5773,8 +5812,8 @@
       <c r="B184" t="inlineStr">
         <is>
           <t>{
-  "tags": "Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey, deep sea exploration, oceanography"
-}, {"tags": "Sub-bottom profiler, sub-bottom sonar, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"}</t>
+  "tags": "Sub-bottom profiler, Sub-bottom profiling, Seafloor mapping, Subsea survey"
+}, {"tags": "Sub-bottom profiler, sub-bottom sonar, seafloor mapping, geophysical survey"}</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5801,7 +5840,9 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>{"tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, oceanography"}</t>
+          <t>{
+  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
+}</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5829,7 +5870,9 @@
       <c r="B186" t="inlineStr">
         <is>
           <t>{
-  "tags": "Side Scan Sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"
+  "product type": "Side Scan Sonar, Multibeam sonar",
+  "technology": "high-resolution sonar, side-scan sonar",
+  "application": "seafloor mapping, subsea survey"
 }</t>
         </is>
       </c>
@@ -5857,7 +5900,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>{"tags":"scientific research, environmental monitoring, oceanographic instrument"}</t>
+          <t>{"tags": "oceanographic instrument, acoustic Doppler, scientific research, environmental monitoring"}</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5884,7 +5927,9 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>{"tags": "Sub-bottom profiler, Multibeam sonar, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography"}</t>
+          <t>{
+  "tags": "Multibeam sonar, 3D Visualization Tool, multibeam echosounder, seafloor mapping, subsea survey, oceanography"
+}</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5911,7 +5956,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>{"tags": "Transponder, Modem, acoustic telemetry, dynamic positioning reference, underwater communication, ROV integration, subsea survey"}</t>
+          <t>{"product type": "Transponder, Positioning system", "technology": "acoustic telemetry, Hydroacoustic Positioning", "application": "underwater communication, subsea survey"}</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5938,13 +5983,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, Multibeam sonar, Side Scan Sonar, Single beam echo sounder, multibeam echosounder, sub-bottom profiling, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography, USBL POSITIONING, AUV USBL position aiding, Seismic support, LBL/USBL calibration and position fix, Hydrographic surveys, Harbor surveys, Search, SCIENTIFIC AND RESEARCH, FISHERY"
-}, {
-  "tags": "UAV, USVT, surface, 3D sonar technology, advanced navigation system, environmental monitoring, subsea mapping, marine survey, maritime surveillance"
-}, {"tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"}, {
-  "tags": "Uncrewed Surface Vehicle, remote vessel operation, customizable payload, long endurance, maritime research support, autonomous maritime vehicle, hydroacoustic applications, USV hydroacoustic applications, diver detection sonar"
-}</t>
+          <t>{"product_type": "USV, surface", "technology": "advanced navigation system, 3D sonar technology", "application": "marine survey, maritime surveillance"}, {"tags": "oceanographic instrument, autonomous transceiver, GPS integrated system, acoustic Doppler, scientific research, environmental monitoring"}, {"tags": "Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey"}, {"tags": "Uncrewed Surface Vehicle, USV hydroacoustic applications, long endurance, maritime research support, autonomous maritime vehicle"}</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5971,9 +6010,13 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>{"tags": "Autonomous Underwater Vehicle, Acoustic Control System, remote sensing, marine survey, underwater surveillance, 3D sonar technology"}, {"tags": "underwater, advanced navigation system, subsea mapping, marine survey, environmental monitoring, maritime surveillance"}, {
-  "tags": "high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography, ROV, AUV, height measurement, obstacle avoidance, positioning, below surface monitoring"
-}, {"tags": "Autonomous Underwater Vehicle, Underwater Altimeters, advanced navigation system, low frequency transducers, seafloor mapping, deep-sea exploration, geophysical survey, sediment layer mapping"}</t>
+          <t>nan, {
+  "tags": "underwater, advanced navigation system, ROV, AUV, subsea mapping, marine survey"
+}, {
+  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, ROV, AUV"
+}, {
+  "tags": "Underwater Altimeters, advanced navigation system, geophysical survey, obstacle avoidance, positioning, below surface monitoring"
+}</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6001,7 +6044,7 @@
       <c r="B192" t="inlineStr">
         <is>
           <t>{
-  "tags": "Modem, Radio, transceiver, VDES technology, maritime communication, navigation systems"
+  "tags": "transceiver, surface, VDES technology, reconfigurable SDR, maritime communication, navigation systems"
 }</t>
         </is>
       </c>
@@ -6029,10 +6072,8 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, marine_echo_sounder, sensor fusion compatible, augmented reality, marine GPS, environmental monitoring, ocean observatories, fish migration studies, long-term biological studies, improved fish stock assessment"
-}, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+          <t>{"marine echo sounder, inertial sensor, GNSS infrastructure, augmented reality, environmental monitoring, maritime navigation" 	:[]}, {
+  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>
@@ -6060,11 +6101,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, marine_echo_sounder, GNSS infrastructure, sensor fusion compatible, marine GPS, maritime navigation, vessel tracking, environmental monitoring"
-}, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
-}</t>
+          <t>{"product type": "marine echo sounder", "technology": "sensor fusion compatible", "application": "maritime navigation, environmental monitoring"}, {"product type": "echo sounder system, autonomous transceiver", "technology": "wideband technology, split-beam transducer", "application": "scientific research, fish stock assessment"}</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6092,9 +6129,9 @@
       <c r="B195" t="inlineStr">
         <is>
           <t>{
-  "tags": "GPS receiver, inertial sensor, IALA beacon receiver, marine_echo_sounder, GNSS infrastructure, spoofing mitigation, sensor fusion compatible, augmented reality, marine GPS, vessel tracking, maritime navigation, environmental monitoring"
+  "tags": "echo sounder system, autonomous transceiver, wideband technology, split-beam transducer, scientific research, environmental monitoring"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "marine echo sounder, sensor fusion compatible, environmental monitoring, maritime navigation"
 }</t>
         </is>
       </c>
@@ -6123,9 +6160,9 @@
       <c r="B196" t="inlineStr">
         <is>
           <t>{
-  "tags": "marine_echo_sounder, sensor fusion compatible, environmental monitoring, maritime navigation"
+  "tags": "echo sounder system, autonomous transceiver, wideband technology, split-beam transducer, scientific research, environmental monitoring"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, oceanographic instrument, wideband_technology, acoustic Doppler, GPS integrated system, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, marine navigation"
+  "tags": "marine echo sounder, sensor fusion compatible, environmental monitoring, maritime navigation"
 }</t>
         </is>
       </c>
@@ -6153,8 +6190,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>{"tags": "Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration, subsea survey"}, {
-  "tags": "Modem, subsea, acoustic modem, maritime communication, subsea communication, underwater mapping, navigation systems"
+          <t>{
+  "tags": "Modem, acoustic modem, subsea communication, navigation systems"
+}, {
+  "product type": "Modem, Positioning system",
+  "technology": "acoustic telemetry, Hydroacoustic Positioning",
+  "application": "underwater communication, ROV integration"
 }</t>
         </is>
       </c>
@@ -6183,9 +6224,11 @@
       <c r="B198" t="inlineStr">
         <is>
           <t>{
-  "tags": "Modem, Navigation system, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "Modem": "subsea, acoustic modem",
+  "Technology": "acoustic modem, sonar software",
+  "Application": "maritime communication, subsea communication"
 }, {
-  "tags": "Modem, subsea, transceiver, acoustic modem, maritime communication, subsea communication, navigation systems"
+  "tags": "Modem, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration"
 }</t>
         </is>
       </c>
@@ -6213,10 +6256,10 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Modem, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, subsea survey, Inertial Measurement Unit"
-}, {
-  "tags": "Modem, subsea, acoustic modem, maritime communication, subsea communication, underwater mapping, navigation systems"
+          <t>{"tags": "Modem, subsea, acoustic modem, sonar software, subsea communication, navigation systems"}, {
+  "product type": "Modem, Positioning system",
+  "technology": "acoustic telemetry, Hydroacoustic Positioning",
+  "application": "underwater communication, subsea survey"
 }</t>
         </is>
       </c>
@@ -6245,7 +6288,9 @@
       <c r="B200" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "Transponder": "Positioning system",
+  "acoustic telemetry": "Hydroacoustic Positioning",
+  "underwater communication": "subsea survey"
 }</t>
         </is>
       </c>
@@ -6274,7 +6319,9 @@
       <c r="B201" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey, explosive atmosphere, IEC standards"
+  "product type": "Transponder, Positioning system",
+  "technology": "acoustic telemetry, Hydroacoustic Positioning",
+  "application": "dynamic positioning reference, subsea survey"
 }</t>
         </is>
       </c>
@@ -6303,7 +6350,7 @@
       <c r="B202" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
 }</t>
         </is>
       </c>
@@ -6331,9 +6378,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey, environmental monitoring, leak detection, asset integrity monitoring, sensor interface, data logging, alarms and events, corrosion resistance, deep-sea exploration, remote actuation, solenoid drivers, analogue sensor interfacing"
-}</t>
+          <t>{"tags": "Transponder, Positioning system, Inertial Measurement Unit, acoustic telemetry, underwater communication, subsea survey"}</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6360,9 +6405,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
-}</t>
+          <t>{"Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"  : "tags"}</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6389,7 +6432,9 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>{"tags": "Transponder, Positioning system, Navigation system, Modem, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"}</t>
+          <t>{
+  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
+}</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6417,7 +6462,7 @@
       <c r="B206" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Inertial Measurement Unit, acoustic telemetry, dynamic positioning reference, ROV integration, subsea survey"
+  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, ROV integration"
 }</t>
         </is>
       </c>
@@ -6446,7 +6491,7 @@
       <c r="B207" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, ROV integration, subsea survey"
 }</t>
         </is>
       </c>
@@ -6475,7 +6520,7 @@
       <c r="B208" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Positioning system, Navigation system, Modem, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
+  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, ROV integration, subsea survey"
 }</t>
         </is>
       </c>
@@ -6504,10 +6549,8 @@
       <c r="B209" t="inlineStr">
         <is>
           <t>{
-  "tags": "Modem, Navigation system, Inertial Measurement Unit, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication, ROV integration, subsea survey"
-}, {
-  "tags": "Modem, subsea, acoustic modem, maritime communication, subsea communication, navigation systems"
-}</t>
+  "tags": "Modem, Positioning system, acoustic telemetry, ROV integration, underwater communication, subsea survey"
+}, {"tags": "Modem, subsea, acoustic modem, live video solution, subsea communication, maritime communication"}</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6535,7 +6578,9 @@
       <c r="B210" t="inlineStr">
         <is>
           <t>{
-  "tags": "Transponder, Navigation system, Hydroacoustic Positioning, dynamic positioning reference, ROV integration"
+  "product type": "Transponder, Positioning system",
+  "technology": "acoustic telemetry, Hydroacoustic Positioning",
+  "application": "ROV integration, subsea survey"
 }</t>
         </is>
       </c>
@@ -6564,7 +6609,7 @@
       <c r="B211" t="inlineStr">
         <is>
           <t>{
-  "tags": "Positioning system, Navigation system, Modem, acoustic telemetry"
+  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration"
 }</t>
         </is>
       </c>
@@ -6593,9 +6638,9 @@
       <c r="B212" t="inlineStr">
         <is>
           <t>{
-  "tags": "portable transducer, echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, underwater survey"
+  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
 }, {
-  "tags": "echo sounder system, autonomous transceiver, sonar_technology, wideband_technology, scientific research, environmental monitoring, fish stock assessment"
+  "tags": "autonomous transceiver, echo sounder system, wideband technology, split-beam transducer, scientific research, fish stock assessment"
 }</t>
         </is>
       </c>

--- a/data/df_with_many_tags_27_11.xlsx
+++ b/data/df_with_many_tags_27_11.xlsx
@@ -468,12 +468,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Acoustic Control System, Autonomous Underwater Vehicle, acoustic telemetry link, 3D sonar technology, BOP operation, underwater surveillance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,9 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, marine echo sounder, GNSS infrastructure, sensor fusion compatible, vessel tracking, maritime navigation"
-}</t>
+          <t>GPS receiver, IALA beacon receiver, GNSS infrastructure, spoofing mitigation, vessel tracking, maritime navigation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,12 +522,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>AIS transponder, acoustic telemetry link, marine survey, remote sensing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,12 +549,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Acoustic Control System, AIS transponder, remote sensing, marine survey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -578,9 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Radio, transceiver, reconfigurable SDR, VDES technology, maritime communication, navigation systems"
-}</t>
+          <t>radio, transceiver, reconfigurable SDR, VDES technology, maritime communication, navigation systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, ROV integration, subsea survey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -665,12 +657,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Acoustic Control System, Leak Detection System, acoustic telemetry link, autonomous navigation, BOP operation, underwater surveillance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -692,11 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{
-  "Data Management": "Quality Assurance, Industrial IoT",
-  "Technology": "cloud-based, AI classification",
-  "Application": "environmental monitoring, ocean exploration"
-}</t>
+          <t>Data Management, Cloud Storage, cloud-based, AI classification, environmental monitoring, ocean exploration</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -723,9 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, sonar technology, acoustic Doppler, sensor fusion algorithms, scientific research, environmental monitoring"
-}</t>
+          <t>echo sounder system, sonar technology, wideband technology, sensor fusion algorithms, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -752,12 +738,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Acoustic Control System, AIS transponder, remote sensing, marine survey</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -779,12 +765,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Acoustic Control System, AIS transponder, underwater surveillance, remote sensing</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -806,16 +792,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{"tags": "AUV, advanced navigation system, HISAS, environmental monitoring, subsea mapping, marine survey"}, nan, {
-  "tags": "Autonomous Underwater Vehicle, customizable payload, long endurance, maritime research support, autonomous maritime vehicle"
-}, {"tags": "Sub-bottom profiler, Multibeam sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"}, {
-  "tags": "Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, low frequency transducers, seafloor mapping, geophysical survey"
-}</t>
+          <t>AUV, advanced navigation system, HISAS, environmental monitoring, subsea mapping, maritime surveillance, Autonomous Underwater Vehicle, Acoustic Control System, acoustic telemetry link, autonomous navigation, underwater surveillance, marine survey, Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, low frequency transducers, seafloor mapping, geophysical survey, Multibeam sonar, Side Scan Sonar, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey, Autonomous Underwater Vehicle, customizable payload, maritime research support, autonomous maritime vehicle, long endurance</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Seafloor mapping, Surveilance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
+          <t>Seafloor mapping, Surveillance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -837,18 +819,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, Multibeam sonar, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey"
-}, nan, {"tags": "Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, next generation obstacle avoidance sonar, geophysical survey, seafloor mapping"}, {
-  "tags": "AUV, underwater, 3D sonar technology, advanced navigation system, subsea mapping, marine survey"
-}, {
-  "tags": "Autonomous Underwater Vehicle, Diver Detection Sonar, remote vessel operation, customizable payload, long endurance, maritime research support"
-}</t>
+          <t>AUV, underwater, 3D sonar technology, advanced navigation system, subsea mapping, marine survey, Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, low frequency transducers, geophysical survey, sediment layer mapping, Autonomous Underwater Vehicle, customizable payload, remote vessel operation, long endurance, autonomous maritime vehicle, maritime research support, Autonomous Underwater Vehicle, Acoustic Control System, 3D sonar technology, autonomous navigation, underwater surveillance, marine survey, Sub-bottom profiler, Multibeam sonar, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Seafloor mapping, Surveilance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
+          <t>Seafloor mapping, Surveillance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -870,18 +846,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{
-  "tags": "AUV, underwater, HISAS, advanced navigation system, subsea mapping, maritime surveillance"
-}, nan, {"tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey"}, {"tags": "Autonomous Underwater Vehicle, USV hydroacoustic applications, long endurance, maritime research support"}, {
-  "product type": ["Autonomous Underwater Vehicle", "Sub-bottom profiler"],
-  "technology": ["advanced navigation system", "sub-bottom sonar"],
-  "application": ["geophysical survey", "seafloor mapping"]
-}</t>
+          <t>Autonomous Underwater Vehicle, advanced navigation system, seafloor mapping, geophysical survey, deep-sea exploration, sub-bottom sonar, Autonomous Underwater Vehicle, 3D sonar technology, acoustic telemetry link, underwater surveillance, marine survey, AUV, underwater, HISAS, advanced navigation system, subsea mapping, maritime surveillance, Autonomous Underwater Vehicle, remote vessel operation, long endurance, maritime research support, autonomous maritime vehicle, customizable payload, Multibeam sonar, Side Scan Sonar, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Seafloor mapping, Surveilance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
+          <t>Seafloor mapping, Surveillance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -903,12 +873,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{"tags": "AUV, HISAS, subsea mapping, environmental monitoring, marine survey, maritime surveillance"}, {"tags": "Multibeam sonar, Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey"}, {"tags": "Autonomous Underwater Vehicle, USV hydroacoustic applications, long endurance, maritime research support, autonomous maritime vehicle"}, nan, {"tags": "Autonomous Underwater Vehicle, Sub-bottom profiler, advanced navigation system, sub-bottom sonar, seafloor mapping, geophysical survey"}</t>
+          <t>Autonomous Underwater Vehicle, Sub-bottom profiler, sub-bottom sonar, advanced navigation system, seafloor mapping, geophysical survey, Autonomous Underwater Vehicle, remote vessel operation, long endurance, maritime research support, autonomous maritime vehicle, AUV, underwater, HISAS, advanced navigation system, environmental monitoring, subsea mapping, Autonomous Underwater Vehicle, Acoustic Control System, 3D sonar technology, autonomous navigation, underwater surveillance, marine survey, Sub-bottom profiler, Multibeam sonar, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Seafloor mapping, Surveilance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
+          <t>Seafloor mapping, Surveillance &amp; monitoring, Naval, Geophysical survey, Autonomous and uncrewed solutions</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -930,11 +900,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Navigation system, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration"
-}, {
-  "tags": "Cloud Storage, Industrial IoT, cloud-based, AI classification, environmental monitoring, data visualization"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey, Cloud Storage, Data Management, cloud-based, AI classification, data visualization, environmental monitoring</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -961,9 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Data Management, Cloud Storage, cloud-based, Cyber Security, data visualization, situational awareness"
-}</t>
+          <t>Data Management, Cloud Storage, cloud-based, Cyber Security, data visualization, situational awareness</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -990,9 +954,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, IALA beacon receiver, GNSS infrastructure, spoofing mitigation, GPS, maritime navigation"
-}</t>
+          <t>GPS receiver, IALA beacon receiver, GNSS infrastructure, sensor fusion compatible, GPS, maritime navigation</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1019,9 +981,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Data Management, Cloud Storage, cloud-based, AI classification, environmental monitoring, situational awareness"
-}</t>
+          <t>Data Management, Cloud Storage, cloud-based, AI classification, environmental monitoring, data visualization</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1048,12 +1008,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nan, {"tags": "Diver Detection Sonar, USV hydroacoustic applications, maritime research support, autonomous maritime vehicle"}</t>
+          <t>Diver Detection Sonar, USV hydroacoustic applications, long endurance, maritime research support, Diver Detection Sonar, 3D sonar technology, underwater surveillance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring, Naval</t>
+          <t>Surveillance &amp; monitoring, Naval</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1075,12 +1035,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Acoustic Control System, Diver Detection Sonar, 3D sonar technology, acoustic telemetry link, underwater surveillance, marine survey</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1102,9 +1062,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey"
-}</t>
+          <t>Multibeam sonar, Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1131,12 +1089,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Diver Detection Sonar, Acoustic Control System, 3D sonar technology, acoustic telemetry link, underwater surveillance, marine survey</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1158,9 +1116,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Side Scan Sonar, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Side Scan Sonar, Single beam echo sounder, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1187,11 +1143,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, low frequency transducers, geophysical survey, sediment layer mapping"
-}, {
-  "tags": "Sub-bottom profiler, Single beam echo sounder, sub-bottom profiling, seafloor mapping, subsea survey"
-}</t>
+          <t>Sub-bottom profiler, Multibeam echosounder software, low frequency transducers, sub-bottom sonar, geophysical survey, sediment layer mapping, Sub-bottom profiler, Single beam echo sounder, sub-bottom profiling, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1218,9 +1170,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, Side Scan Sonar, high-resolution sonar, sub-bottom profiling, seafloor mapping, subsea survey"
-}</t>
+          <t>Single beam echo sounder, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1247,7 +1197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{"tags":["Single beam echo sounder","Multibeam sonar","high-resolution sonar","multibeam echosounder","seafloor mapping","subsea survey"]}</t>
+          <t>Single beam echo sounder, Multibeam sonar, high-resolution sonar, multibeam echosounder, seafloor mapping, oceanography</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1274,9 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{
-  "tags": "autonomous transceiver, oceanographic instrument, wideband technology, scientific research, environmental monitoring, fish stock assessment"
-}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, acoustic Doppler, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1303,13 +1251,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{
-  "echo sounder system": "scientific research, environmental monitoring",
-  "wideband technology": "GPS integrated system",
-  "fish stock assessment": "marine navigation"
-}, {
-  "tags": "portable transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, GPS integrated system, scientific research, environmental monitoring, portable transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1336,11 +1278,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
-}, {
-  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, environmental monitoring"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey, echo sounder system, oceanographic instrument, wideband technology, GPS integrated system, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1367,13 +1305,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, oceanographic instrument, wideband technology, acoustic Doppler, scientific research, fish stock assessment"
-}, {
-  "product type": "software documentation, transceiver marine research",
-  "technology": "broadband sweeps, frequency adjustment",
-  "application": "fish finding, fish stock assessment"
-}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, acoustic Doppler, scientific research, fish stock assessment, software documentation, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, fish stock assessment</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1400,9 +1332,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, oceanography, deep sea exploration"
-}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, deep sea exploration</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1429,9 +1359,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration"
-}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1458,7 +1386,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, oceanography"}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1485,9 +1413,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey"
-}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1514,7 +1440,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, high-resolution sonar"}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1541,9 +1467,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, high-resolution sonar, oceanography"
-}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1570,9 +1494,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey"
-}</t>
+          <t>Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1599,7 +1521,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1626,9 +1548,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration"
-}</t>
+          <t>Multibeam sonar, High-resolution sonar, Seafloor mapping, Subsea survey, Deep sea exploration, Oceanography</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1655,11 +1575,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{
-  "product type": ["Multibeam sonar", "Single beam echo sounder"],
-  "technology": ["multibeam echosounder"],
-  "application": ["seafloor mapping", "subsea survey"]
-}</t>
+          <t>Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1686,7 +1602,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{"tags": "Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey, deep sea exploration, oceanography"}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, deep sea exploration, oceanography</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1713,9 +1629,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, Sub-bottom profiler, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Single beam echo sounder, Sub-bottom profiler, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1742,9 +1656,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{
-  "tags": "oceanographic instrument, acoustic Doppler, environmental monitoring, marine navigation"
-}</t>
+          <t>oceanographic instrument, sonar technology, wideband technology, GPS integrated system, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1771,9 +1683,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1800,9 +1710,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, inertial sensor, GNSS infrastructure, sensor fusion compatible, maritime navigation, vessel tracking"
-}</t>
+          <t>GPS receiver, inertial sensor, GNSS infrastructure, sensor fusion compatible, maritime navigation, vessel tracking</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1829,7 +1737,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{"product type": "GPS receiver, inertial sensor", "technology": "GNSS infrastructure, spoofing mitigation", "application": "vessel tracking, maritime navigation"}</t>
+          <t>GPS receiver, inertial sensor, GNSS infrastructure, spoofing mitigation, maritime navigation, vessel tracking</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1856,9 +1764,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{
-  "tags": "GPS receiver, inertial sensor, GNSS infrastructure, sensor fusion compatible, maritime navigation, vessel tracking"
-}</t>
+          <t>GPS receiver, inertial sensor, GNSS infrastructure, sensor fusion compatible, vessel tracking, maritime navigation</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1885,7 +1791,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{"tags": "GPS receiver, IALA beacon receiver, sensor fusion compatible, GNSS infrastructure, GPS, maritime navigation"}</t>
+          <t>GPS receiver, IALA beacon receiver, GNSS infrastructure, sensor fusion compatible, maritime navigation, vessel tracking</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1912,9 +1818,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, Inertial Measurement Unit, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, Inertial Measurement Unit, Hydroacoustic Positioning, dynamic positioning reference, subsea survey</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1941,7 +1845,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{"tags": "High-resolution sonar, Side Scan Sonar, seafloor mapping, subsea survey"}</t>
+          <t>high-resolution sonar, side-scan sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1968,9 +1872,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, Hydroacoustic Positioning, acoustic telemetry, dynamic positioning reference, ROV integration"
-}</t>
+          <t>Positioning system, Navigation system, Hydroacoustic Positioning, Inertial Measurement Unit, dynamic positioning reference, subsea survey</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1997,12 +1899,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Leak Detection System, Acoustic Control System, AIS transponder, acoustic telemetry link, remote sensing, underwater surveillance</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2024,9 +1926,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system,Navigation system,acoustic telemetry,Hydroacoustic Positioning,underwater communication,ROV integration"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2053,9 +1953,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2082,11 +1980,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{
-  "product type": "Positioning system, Navigation system",
-  "technology": "acoustic telemetry, Hydroacoustic Positioning",
-  "application": "dynamic positioning reference, ROV integration"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, ROV integration</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2113,7 +2007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{"tags": "Portable Acoustic Positioning system, Navigation system, acoustic telemetry, Inertial Measurement Unit, dynamic positioning reference, subsea survey"}</t>
+          <t>Positioning system, Navigation system, Inertial Measurement Unit, acoustic telemetry, dynamic positioning reference, subsea survey</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2140,7 +2034,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{"tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2167,9 +2061,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, ROV integration"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2196,7 +2088,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{"Positioning system,Navigation system,acoustic telemetry,Hydroacoustic Positioning,dynamic positioning reference,underwater communication"  : []}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, underwater communication</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2223,9 +2115,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2252,7 +2142,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{"tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2279,9 +2169,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, Inertial Measurement Unit, Hydroacoustic Positioning, ROV integration, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, Inertial Measurement Unit, Hydroacoustic Positioning, ROV integration, Subsea survey</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2308,9 +2196,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2337,16 +2223,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>nan, {
-  "tags": "surface, underwater, advanced navigation system, Sunstone, maritime surveillance, Situational Awareness"
-}, {
-  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, maritime navigation, Situational Awareness"
-}</t>
+          <t>Autonomous Underwater Vehicle, Leak Detection System, 3D sonar technology, acoustic telemetry link, underwater surveillance, remote sensing, inertial sensor, marine echo sounder, sensor fusion compatible, GNSS infrastructure, maritime navigation, Situational Awareness, underwater, surface, advanced navigation system, HISAS, maritime surveillance, subsea mapping</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring, Surface navigation &amp; positioning, Autonomous and uncrewed solutions</t>
+          <t>Surveillance &amp; monitoring, Surface navigation &amp; positioning, Autonomous and uncrewed solutions</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2368,18 +2250,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>nan, {
-  "product type": "surface, USV",
-  "technology": "advanced navigation system, HISAS",
-  "application": "maritime surveillance, environmental monitoring"
-}, {
-  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, maritime navigation, vessel tracking"
-}</t>
+          <t>Acoustic Control System, Leak Detection System, autonomous navigation, AIS transponder, underwater surveillance, remote sensing, surface, advanced navigation system, maritime surveillance, marine survey, inertial sensor, marine echo sounder, augmented reality, sensor fusion compatible, maritime navigation, vessel tracking</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring, Surface navigation &amp; positioning, Autonomous and uncrewed solutions</t>
+          <t>Surveillance &amp; monitoring, Surface navigation &amp; positioning, Autonomous and uncrewed solutions</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2401,9 +2277,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{
-  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, GPS, maritime navigation"
-}</t>
+          <t>inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, vessel tracking, maritime navigation</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2430,9 +2304,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, Single beam echo sounder, multibeam echosounder, high-resolution sonar, seafloor mapping, oceanography"
-}</t>
+          <t>Multibeam sonar, Single beam echo sounder, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2459,11 +2331,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{
-  "Multibeam sonar": "multibeam echosounder, fishery research applications",
-  "Technology": "beamforming software, real-time data acquisition",
-  "Application": "seafloor mapping, biomass estimation"
-}</t>
+          <t>Multibeam sonar, multibeam echosounder, seafloor mapping, oceanography</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2490,11 +2358,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{
-  "product type": "inertial sensor, marine echo sounder",
-  "technology": "sensor fusion compatible, spoofing mitigation",
-  "application": "vessel tracking, maritime navigation"
-}</t>
+          <t>inertial sensor, marine echo sounder, sensor fusion compatible, GNSS infrastructure, vessel tracking, maritime navigation</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2521,9 +2385,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{
-  "tags": "inertial sensor, marine echo sounder, sensor fusion compatible, augmented reality, vessel tracking, maritime navigation"
-}</t>
+          <t>inertial sensor, marine echo sounder, GNSS infrastructure, sensor fusion compatible, vessel tracking, maritime navigation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2550,9 +2412,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Radio, Modem, VDES technology, reconfigurable SDR, maritime communication, navigation systems"
-}</t>
+          <t>Radio, Transceiver, VDES technology, Reconfigurable SDR, Maritime communication, Navigation systems</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2579,11 +2439,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{
-  "product type": "Positioning system, Navigation system",
-  "technology": "acoustic telemetry, Hydroacoustic Positioning",
-  "application": "underwater communication, ROV integration"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, ROV integration</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2610,12 +2466,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Leak Detection System, Acoustic Control System, 3D sonar technology, acoustic telemetry link, underwater surveillance, remote sensing</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Surveilance &amp; monitoring</t>
+          <t>Surveillance &amp; monitoring</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2637,9 +2493,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Motion Reference Unit, MEMS gyro, motion sensor, marine navigation, motion compensation, attitude determination"
-}</t>
+          <t>Motion Reference Unit, MEMS gyro, inertial measurement, motion compensation, marine navigation, motion sensor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2666,9 +2520,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, marine engineering, environmental monitoring"
-}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey, environmental monitoring, underwater science</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2695,11 +2547,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>{
-  "Multibeam sonar": "Multibeam sonar",
-  "Technology": "multibeam echosounder, high-resolution sonar",
-  "Application": "seafloor mapping, subsea survey"
-}</t>
+          <t>Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2726,9 +2574,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Navigation Simulation, inertial measurement, post-processing analysis, marine navigation"
-}, {"tags": "Navigation system, Positioning system, Inertial Measurement Unit, Hydroacoustic Positioning, underwater communication, subsea survey"}</t>
+          <t>Navigation Simulation, inertial measurement, post-processing analysis, marine navigation, motion compensation, Navigation system, Positioning system, Inertial Measurement Unit, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2755,9 +2601,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{
-  "tags": "inertial sensor, GPS receiver, sensor fusion compatible, spoofing mitigation, maritime navigation, vessel tracking"
-}</t>
+          <t>inertial sensor, GPS receiver, sensor fusion compatible, spoofing mitigation, vessel tracking, maritime navigation</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2784,13 +2628,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Navigation system, Positioning system, Hydroacoustic Positioning, acoustic telemetry, underwater communication, subsea survey"
-}, {
-  "Data Management": "Industrial IoT, Cloud Storage",
-  "Technology": "cloud-based, sensor data analysis",
-  "Application": "situational awareness, data visualization"
-}</t>
+          <t>Data Management, Industrial IoT, cloud-based, sensor data analysis, environmental monitoring, situational awareness, Positioning system, Navigation system, Hydroacoustic Positioning, dynamic positioning reference, subsea survey, underwater communication</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2817,9 +2655,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, split-beam transducer, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>portable transducer, echosounder transducer, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2846,9 +2682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, portable transducer, split-beam transducer, fish finding, hydroacoustic synchronization, underwater survey</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2875,9 +2709,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2904,9 +2736,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>portable transducer, echosounder transducer, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2933,9 +2763,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Multibeam sonar, Side Scan Sonar, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2962,9 +2790,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2991,9 +2817,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3020,9 +2844,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, subsea survey"
-}</t>
+          <t>Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3049,10 +2871,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{"product type": "Multibeam sonar", "technology": "multibeam echosounder", "application": "seafloor mapping"}, {"Multibeam echosounder software," 
- 	: ", pitch and roll stabilization," 
- 	,"seafloor mapping," 
- 	:"geophysical survey"}</t>
+          <t>Multibeam echosounder software, pitch and roll stabilization, seafloor mapping, geophysical survey, Multibeam sonar, multibeam echosounder, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3079,11 +2898,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{
-  "product type": "Data Management, Industrial IoT",
-  "technology": "sensor data analysis, cloud-based",
-  "application": "environmental monitoring, data visualization"
-}</t>
+          <t>Data Management, Industrial IoT, sensor data analysis, cloud-based, environmental monitoring, data visualization</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3110,9 +2925,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Industrial IoT, Quality Assurance, cloud-based, sensor data analysis, situational awareness, data visualization"
-}</t>
+          <t>Industrial IoT, Quality Assurance, cloud-based, sensor data analysis, situational awareness, data visualization</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3139,9 +2952,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Multibeam sonar, Side Scan Sonar, multibeam echosounder, side-scan sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3168,9 +2979,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Side Scan Sonar, Single beam echo sounder, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Side Scan Sonar, Single beam echo sounder, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3197,9 +3006,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Side Scan Sonar, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Side Scan Sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3226,15 +3033,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>{
-  "product type": "echo sounder system, sonar technology",
-  "technology": "split-beam transducer",
-  "application": "scientific research, deep water measurements"
-}, {
-  "tags": "echosounder transducer, split-beam transducer, fish finding, underwater survey"
-}, {
-  "tags": "Single beam echo sounder, Sub-bottom profiler, multibeam echosounder, sub-bottom profiling, seafloor mapping, deep sea exploration"
-}</t>
+          <t>echosounder transducer, transceiver marine research, dual frequency, split-beam transducer, fish finding, underwater survey, Single beam echo sounder, Multibeam sonar, high-resolution sonar, sub-bottom profiling, seafloor mapping, subsea survey, echo sounder system, oceanographic instrument, acoustic Doppler, split-beam transducer, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3261,9 +3060,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, single-beam transducer, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3290,9 +3087,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, marine research, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3319,9 +3114,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3348,9 +3141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3377,9 +3168,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, fish finding, underwater survey"
-}</t>
+          <t>portable transducer, echosounder transducer, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3406,9 +3195,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transducer marine research, frequency adjustment, narrow beam, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3435,14 +3222,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>{
-  "echosounder transducer": "Simrad 38-9",
-  "transceiver marine research": "Simrad 38-9",
-  "split-beam transducer": "Simrad 38-9",
-  "fish finding": "Simrad 38-9",
-  "hydroacoustic synchronization": "Simrad 38-9",
-  "underwater survey": "Simrad 38-9"
-}</t>
+          <t>echosounder transducer, marine research, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3469,7 +3249,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>{"echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey" : "tags"}</t>
+          <t>echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3496,9 +3276,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3525,9 +3303,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, dual frequency, fish finding, bottom discrimination, through hull mounting, discontinued product"
-}</t>
+          <t>echosounder transducer, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3554,7 +3330,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, transceiver marine research, fish finding, underwater survey"}</t>
+          <t>echosounder transducer, transceiver marine research, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3581,9 +3357,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>{
-  "tags": "portable transducer, echosounder transducer, fish finding, underwater survey"
-}</t>
+          <t>portable transducer, echosounder transducer, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3610,9 +3384,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, fish finding, single-beam transducer, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, transceiver marine research, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3639,7 +3411,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey"}</t>
+          <t>echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3666,10 +3438,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>{
-  "echosounder transducer": "dual frequency",
-  "fish finding": "hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, transceiver marine research, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3696,11 +3465,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Radio, Modem, VDES technology, reconfigurable SDR, maritime communication, navigation systems"
-}, {
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>Radio, Transceiver, VDES technology, Reconfigurable SDR, Maritime communication, Navigation systems, transceiver, marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3727,13 +3492,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, broadband sweeps, fish finding, underwater survey"
-}, {
-  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, scientific research, environmental monitoring, fish stock assessment, echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3760,11 +3519,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>{"tags": "Multibeam echosounder software, Underwater Altimeters, advanced navigation system, pitch and roll stabilization, geophysical survey, seafloor mapping"}, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
-}, {
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey, hydroacoustic synchronization, Multibeam echosounder software, Underwater Altimeters, low frequency transducers, pitch and roll stabilization, seafloor mapping, geophysical survey</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3791,9 +3546,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, transceiver marine research, dual frequency, fish finding, hydroacoustic synchronization, underwater survey</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3820,9 +3573,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3849,9 +3600,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, oceanographic instrument, acoustic Doppler, split-beam transducer, scientific research, environmental monitoring"
-}</t>
+          <t>echo sounder system, oceanographic instrument, acoustic Doppler, split-beam transducer, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3878,9 +3627,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3907,11 +3654,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>{
-  "product type": "echosounder transducer, transceiver marine research",
-  "technology": "split-beam transducer, dual frequency",
-  "application": "fish finding, fish stock assessment"
-}</t>
+          <t>software documentation, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3938,9 +3681,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
-}, {"tags": "oceanographic instrument, autonomous transceiver, wideband technology, split-beam transducer, scientific research, environmental monitoring"}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey, echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3967,11 +3708,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, fish stock assessment, underwater survey"
-}</t>
+          <t>echosounder transducer, marine research, split-beam transducer, fish finding, fish stock assessment, underwater survey, oceanographic instrument, echo sounder system, wideband technology, split-beam transducer, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3998,9 +3735,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"
-}, {"tags": "echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, environmental monitoring"}</t>
+          <t>echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, echosounder transducer, split-beam transducer, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4027,11 +3762,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, split-beam transducer, fish finding, deep water installations"
-}, {
-  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey, echo sounder system, sonar technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4058,7 +3789,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"}, {"product_type": "echosounder transducer, portable transducer", "technology": "split-beam transducer", "application": "fish finding, underwater survey"}</t>
+          <t>portable transducer, echosounder transducer, split-beam transducer, fish finding, hydroacoustic synchronization, fish stock assessment, echo sounder system, split-beam transducer, scientific research, fish stock assessment</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4085,9 +3816,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, deep water measurements"
-}, {"tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"}</t>
+          <t>echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, fish stock assessment, echosounder transducer, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4114,11 +3843,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, fish finding, fish stock assessment"
-}, {
-  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment, echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4145,11 +3870,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"
-}, {
-  "tags": "oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echosounder transducer, marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey, echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4176,11 +3897,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey, hydroacoustic synchronization, echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4207,11 +3924,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, marine research, split-beam transducer, fish finding, underwater survey"
-}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment, echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4238,9 +3951,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey"}, {
-  "tags": "oceanographic instrument, sonar technology, split-beam transducer, wideband technology, scientific research, fish stock assessment"
-}</t>
+          <t>echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, fish stock assessment, echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4267,9 +3978,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>{"tags": "echo sounder system, autonomous transceiver, split-beam transducer, scientific research, environmental monitoring"}, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey, echo sounder system, autonomous transceiver, split-beam transducer, scientific research, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4296,11 +4005,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, hydroacoustic synchronization, underwater survey"
-}, {
-  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, fish finding, hydroacoustic synchronization, fish stock assessment, echo sounder system, sonar technology, acoustic Doppler, split-beam transducer, scientific research, fish stock assessment</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4327,11 +4032,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, sonar technology, acoustic Doppler, scientific research, fish stock assessment, environmental monitoring"
-}, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, marine research, split-beam transducer, fish finding, hydroacoustic synchronization, fish stock assessment, echo sounder system, oceanographic instrument, split-beam transducer, scientific research, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4358,11 +4059,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
-}, {
-  "tags": "echo sounder system, autonomous transceiver, split-beam transducer, acoustic Doppler, scientific research, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey, echo sounder system, sonar technology, split-beam transducer, acoustic Doppler, scientific research, fish stock assessment</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4389,11 +4086,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
-}, {
-  "tags": "echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey, echo sounder system, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment, environmental monitoring</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4420,9 +4113,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment, environmental monitoring"
-}, {"echosounder transducer, marine research, split-beam transducer, fish finding, hydroacoustic synchronization, fish stock assessment"  : true}</t>
+          <t>echosounder transducer, portable transducer, split-beam transducer, fish finding, fish stock assessment, underwater survey, echo sounder system, sonar technology, split-beam transducer, scientific research, environmental monitoring, fish stock assessment</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4449,7 +4140,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, marine research, split-beam transducer, fish finding, fish stock assessment, underwater survey"}, {"tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment"}</t>
+          <t>echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, fish stock assessment, echosounder transducer, transceiver marine research, split-beam transducer, fish finding, fish stock assessment, underwater survey</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4476,11 +4167,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey"
-}, {
-  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, fish finding, underwater survey, echo sounder system, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4507,9 +4194,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, marine research, split-beam transducer, fish finding, fish stock assessment"}, {
-  "tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echosounder transducer, marine research, split-beam transducer, fish finding, fish stock assessment, echo sounder system, split-beam transducer, scientific research, fish stock assessment</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4536,9 +4221,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, fish stock assessment"
-}, {"tags": "echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment, marine navigation"}</t>
+          <t>echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, fish stock assessment, echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, fish stock assessment</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4565,11 +4248,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>{
-  "tags": "sonar technology, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, marine research, split-beam transducer, fish finding, hydroacoustic synchronization, underwater survey"
-}</t>
+          <t>echo sounder system, sonar technology, split-beam transducer, scientific research, fish stock assessment, environmental monitoring, echosounder transducer, marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4596,11 +4275,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>{
-  "tags": "oceanographic instrument, split-beam transducer, scientific research, environmental monitoring"
-}, {
-  "tags": "echosounder transducer, marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey, echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4627,11 +4302,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, split-beam transducer, scientific research, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, fish stock assessment"
-}</t>
+          <t>echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, fish stock assessment, echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, fish stock assessment</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4658,9 +4329,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, split-beam transducer, fish finding, underwater survey"}, {
-  "tags": "sonar technology, oceanographic instrument, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echo sounder system, oceanographic instrument, split-beam transducer, wideband technology, scientific research, fish stock assessment, echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4687,11 +4356,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, sonar technology, wideband technology, acoustic Doppler, scientific research, fish stock assessment"
-}, {
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, underwater survey, echo sounder system, sonar technology, wideband technology, acoustic Doppler, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4718,9 +4383,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, fish stock assessment"
-}</t>
+          <t>portable transducer, echosounder transducer, split-beam transducer, dual frequency, fish finding, fish stock assessment</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4747,9 +4410,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4776,9 +4437,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, dual frequency, hydroacoustic synchronization, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4805,9 +4464,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, fish stock assessment</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4834,11 +4491,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>{
-  "product type": "echosounder transducer, transceiver marine research",
-  "technology": "broadband sweeps, frequency adjustment",
-  "application": "fish finding, underwater survey"
-}</t>
+          <t>transceiver marine research, echosounder transducer, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4865,9 +4518,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4894,9 +4545,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>{
-  "tags": "software documentation, transceiver marine research, frequency adjustment, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>software documentation, transceiver marine research, frequency adjustment, hydroacoustic synchronization, fish stock assessment, underwater survey</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4923,7 +4572,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>{"tags": "transceiver marine research, echosounder transducer, frequency adjustment, broadband sweeps, fish finding, underwater survey"}</t>
+          <t>transceiver marine research, echosounder transducer, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4950,9 +4599,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>{"tags": "software documentation, transceiver marine research, frequency adjustment, hydroacoustic synchronization, fish finding, underwater survey"}, {
-  "tags": "software documentation, sensor programming cable, fish finding, fish stock assessment"
-}</t>
+          <t>software documentation, transceiver marine research, frequency adjustment, fish finding, hydroacoustic synchronization, fish stock assessment, software documentation, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4979,9 +4626,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5008,11 +4653,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>{
-  "product type": "software documentation, echosounder transducer",
-  "technology": "broadband sweeps, frequency adjustment",
-  "application": "fish finding, underwater survey"
-}</t>
+          <t>software documentation, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5039,9 +4680,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, broadband sweeps, fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, software documentation, split-beam transducer, broadband sweeps, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5068,11 +4707,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>{
-  "product type": "echosounder transducer, transceiver marine research",
-  "technology": "split-beam transducer, frequency adjustment",
-  "application": "fish finding, hydroacoustic synchronization"
-}</t>
+          <t>echosounder transducer, software documentation, split-beam transducer, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5099,9 +4734,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5128,9 +4761,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, software documentation, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, software documentation, split-beam transducer, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5157,9 +4788,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, dual frequency, broadband sweeps, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5186,9 +4815,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, frequency adjustment, broadband sweeps, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, frequency adjustment, broadband sweeps, fish finding, fish stock assessment</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5215,11 +4842,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>{
-  "echosounder transducer": "fish finding",
-  "transceiver marine research": "broadband sweeps",
-  "fish finding": "underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5246,9 +4869,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5275,9 +4896,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, frequency adjustment, fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, frequency adjustment, broadband sweeps, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5304,11 +4923,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>{
-  "product type": "echosounder transducer, transceiver marine research",
-  "technology": "frequency adjustment, broadband sweeps",
-  "application": "fish finding, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, underwater survey</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5335,11 +4950,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>{
-  "product type": "echosounder transducer, transceiver marine research",
-  "technology": "frequency adjustment, broadband sweeps",
-  "application": "fish finding, underwater survey"
-}</t>
+          <t>echosounder transducer, transceiver marine research, frequency adjustment, broadband sweeps, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5366,7 +4977,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, transceiver marine research, frequency adjustment, fish finding, fish stock assessment, underwater survey"}</t>
+          <t>echosounder transducer, transceiver marine research, frequency adjustment, fish finding, fish stock assessment, underwater survey</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5393,7 +5004,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>{"tags": "echosounder transducer, transceiver marine research, frequency adjustment, hydroacoustic synchronization, fish finding, underwater survey"}</t>
+          <t>echosounder transducer, transceiver marine research, broadband sweeps, frequency adjustment, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5420,7 +5031,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>{"product type": "echosounder transducer, transceiver marine research", "technology": "frequency adjustment, broadband sweeps", "application": "fish finding, hydroacoustic synchronization"}</t>
+          <t>echosounder transducer, transceiver marine research, dual frequency, broadband sweeps, fish finding, hydroacoustic synchronization</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5447,9 +5058,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, Side Scan Sonar, high-resolution sonar, sub-bottom profiling, seafloor mapping, subsea survey"
-}</t>
+          <t>Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5476,11 +5085,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>{
-  "Single beam echo sounder": "Single beam echo sounder",
-  "Technology": "high-resolution sonar",
-  "Application": "seafloor mapping, deep sea exploration"
-}</t>
+          <t>Single beam echo sounder, seafloor mapping, deep sea exploration</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5507,9 +5112,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Single beam echo sounder, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5536,9 +5139,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5565,9 +5166,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Side Scan Sonar, Multibeam sonar, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Side Scan Sonar, Multibeam sonar, side-scan sonar, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5594,9 +5193,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>{
-  "tags": "sonar software, subsea, underwater mapping, navigation systems"
-}</t>
+          <t>subsea, surface, sonar software, underwater mapping, navigation systems</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5623,11 +5220,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, sub-bottom sonar, seafloor mapping, geophysical survey"
-}, {
-  "tags": "Sub-bottom profiler, GeoPulse, sub-bottom profiling, seafloor mapping, subsea survey"
-}</t>
+          <t>Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey, Sub-bottom profiler, sub-bottom sonar, geophysical survey, sediment layer mapping</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5654,13 +5247,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>{
-  "product type": "Sub-bottom profiler",
-  "technology": "sub-bottom profiling",
-  "application": "seafloor mapping, subsea survey"
-}, {
-  "tags": "Sub-bottom profiler, low frequency transducers, geophysical survey, sediment layer mapping"
-}</t>
+          <t>Sub-bottom profiler, sub-bottom sonar, seafloor mapping, geophysical survey, Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5687,13 +5274,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>{
-  "product type": ["Sub-bottom profiler"],
-  "technology": ["sub-bottom sonar", "pitch and roll stabilization"],
-  "application": ["seafloor mapping", "geophysical survey"]
-}, {
-  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, multibeam echosounder, seafloor mapping, deep sea exploration"
-}</t>
+          <t>Sub-bottom profiler, low frequency transducers, pitch and roll stabilization, seafloor mapping, geophysical survey, sediment layer mapping, Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, multibeam echosounder, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5720,9 +5301,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>{"tags": "Sub-bottom profiler, low frequency transducers, geophysical survey, sediment layer mapping, seafloor mapping"}, {
-  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Sub-bottom profiler, sub-bottom sonar, geophysical survey, sediment layer mapping, low frequency transducers, deep-sea exploration, Sub-bottom profiler, multibeam echosounder, seafloor mapping, subsea survey, high-resolution sonar, deep sea exploration</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5749,11 +5328,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, Multibeam echosounder software, sub-bottom sonar, low frequency transducers, geophysical survey, sediment layer mapping"
-}, {
-  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Sub-bottom profiler, multibeam echosounder, seafloor mapping, subsea survey, high-resolution sonar, sub-bottom profiling, Sub-bottom profiler, sub-bottom sonar, geophysical survey, sediment layer mapping</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5780,11 +5355,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, low frequency transducers, seafloor mapping, geophysical survey, sediment layer mapping"
-}, {
-  "tags": "Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Sub-bottom profiler, low frequency transducers, seafloor mapping, geophysical survey, sediment layer mapping, Sub-bottom profiler, Multibeam sonar, sub-bottom profiling, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5811,9 +5382,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Sub-bottom profiler, Sub-bottom profiling, Seafloor mapping, Subsea survey"
-}, {"tags": "Sub-bottom profiler, sub-bottom sonar, seafloor mapping, geophysical survey"}</t>
+          <t>Sub-bottom profiler, sub-bottom profiling, seafloor mapping, subsea survey, Sub-bottom profiler, Low frequency transducers, Seafloor mapping, Geophysical survey, Sediment layer mapping</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5840,9 +5409,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey"
-}</t>
+          <t>Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5869,11 +5436,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>{
-  "product type": "Side Scan Sonar, Multibeam sonar",
-  "technology": "high-resolution sonar, side-scan sonar",
-  "application": "seafloor mapping, subsea survey"
-}</t>
+          <t>Side Scan Sonar, High-resolution sonar, seafloor mapping, subsea survey</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5900,7 +5463,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>{"tags": "oceanographic instrument, acoustic Doppler, scientific research, environmental monitoring"}</t>
+          <t>oceanographic instrument, autonomous transceiver, GPS integrated system, wideband technology, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5927,9 +5490,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Multibeam sonar, 3D Visualization Tool, multibeam echosounder, seafloor mapping, subsea survey, oceanography"
-}</t>
+          <t>Multibeam sonar, 3D Visualization Tool, multibeam echosounder, seafloor mapping, subsea survey, oceanography</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5956,7 +5517,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>{"product type": "Transponder, Positioning system", "technology": "acoustic telemetry, Hydroacoustic Positioning", "application": "underwater communication, subsea survey"}</t>
+          <t>Transponder, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5983,7 +5544,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>{"product_type": "USV, surface", "technology": "advanced navigation system, 3D sonar technology", "application": "marine survey, maritime surveillance"}, {"tags": "oceanographic instrument, autonomous transceiver, GPS integrated system, acoustic Doppler, scientific research, environmental monitoring"}, {"tags": "Multibeam sonar, high-resolution sonar, seafloor mapping, subsea survey"}, {"tags": "Uncrewed Surface Vehicle, USV hydroacoustic applications, long endurance, maritime research support, autonomous maritime vehicle"}</t>
+          <t>Multibeam sonar, Single beam echo sounder, multibeam echosounder, high-resolution sonar, seafloor mapping, subsea survey, echo sounder system, autonomous transceiver, acoustic Doppler, GPS integrated system, scientific research, fish stock assessment, Uncrewed Surface Vehicle, customizable payload, USV hydroacoustic applications, long endurance, maritime research support, autonomous maritime vehicle, USV, surface, advanced navigation system, 3D sonar technology, marine survey, maritime surveillance</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6010,18 +5571,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>nan, {
-  "tags": "underwater, advanced navigation system, ROV, AUV, subsea mapping, marine survey"
-}, {
-  "tags": "Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, ROV, AUV"
-}, {
-  "tags": "Underwater Altimeters, advanced navigation system, geophysical survey, obstacle avoidance, positioning, below surface monitoring"
-}</t>
+          <t>Single beam echo sounder, high-resolution sonar, seafloor mapping, subsea survey, Underwater Altimeters, Autonomous Underwater Vehicle, advanced navigation system, low frequency transducers, geophysical survey, deep-sea exploration, underwater, advanced navigation system, environmental monitoring, subsea mapping, Autonomous Underwater Vehicle, Acoustic Control System, acoustic telemetry link, autonomous navigation, underwater surveillance, marine survey</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Geophysical survey, Seafloor mapping, Surveilance &amp; monitoring, Autonomous and uncrewed solutions</t>
+          <t>Geophysical survey, Seafloor mapping, Surveillance &amp; monitoring, Autonomous and uncrewed solutions</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6043,9 +5598,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>{
-  "tags": "transceiver, surface, VDES technology, reconfigurable SDR, maritime communication, navigation systems"
-}</t>
+          <t>transceiver, surface, VDES technology, reconfigurable SDR, maritime communication, navigation systems</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6072,9 +5625,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>{"marine echo sounder, inertial sensor, GNSS infrastructure, augmented reality, environmental monitoring, maritime navigation" 	:[]}, {
-  "tags": "echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment, marine echo sounder, inertial sensor, sensor fusion compatible, augmented reality, environmental monitoring, maritime navigation</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6101,7 +5652,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>{"product type": "marine echo sounder", "technology": "sensor fusion compatible", "application": "maritime navigation, environmental monitoring"}, {"product type": "echo sounder system, autonomous transceiver", "technology": "wideband technology, split-beam transducer", "application": "scientific research, fish stock assessment"}</t>
+          <t>echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, fish stock assessment, marine echo sounder, GNSS infrastructure, maritime navigation, environmental monitoring</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6128,11 +5679,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, autonomous transceiver, wideband technology, split-beam transducer, scientific research, environmental monitoring"
-}, {
-  "tags": "marine echo sounder, sensor fusion compatible, environmental monitoring, maritime navigation"
-}</t>
+          <t>marine echo sounder, inertial sensor, sensor fusion compatible, GNSS infrastructure, maritime navigation, environmental monitoring, echo sounder system, autonomous transceiver, wideband technology, split-beam transducer, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6159,11 +5706,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echo sounder system, autonomous transceiver, wideband technology, split-beam transducer, scientific research, environmental monitoring"
-}, {
-  "tags": "marine echo sounder, sensor fusion compatible, environmental monitoring, maritime navigation"
-}</t>
+          <t>marine echo sounder, sensor fusion compatible, environmental monitoring, maritime navigation, echo sounder system, oceanographic instrument, wideband technology, split-beam transducer, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6190,13 +5733,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Modem, acoustic modem, subsea communication, navigation systems"
-}, {
-  "product type": "Modem, Positioning system",
-  "technology": "acoustic telemetry, Hydroacoustic Positioning",
-  "application": "underwater communication, ROV integration"
-}</t>
+          <t>Modem, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration, Modem, subsea, acoustic modem, navigation systems, maritime communication, subsea communication</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6223,13 +5760,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>{
-  "Modem": "subsea, acoustic modem",
-  "Technology": "acoustic modem, sonar software",
-  "Application": "maritime communication, subsea communication"
-}, {
-  "tags": "Modem, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration"
-}</t>
+          <t>Modem, subsea, acoustic modem, sonar software, maritime communication, subsea communication, Modem, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6256,11 +5787,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>{"tags": "Modem, subsea, acoustic modem, sonar software, subsea communication, navigation systems"}, {
-  "product type": "Modem, Positioning system",
-  "technology": "acoustic telemetry, Hydroacoustic Positioning",
-  "application": "underwater communication, subsea survey"
-}</t>
+          <t>Modem, subsea, acoustic modem, sonar software, subsea communication, navigation systems, Modem, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6287,11 +5814,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>{
-  "Transponder": "Positioning system",
-  "acoustic telemetry": "Hydroacoustic Positioning",
-  "underwater communication": "subsea survey"
-}</t>
+          <t>Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6318,11 +5841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>{
-  "product type": "Transponder, Positioning system",
-  "technology": "acoustic telemetry, Hydroacoustic Positioning",
-  "application": "dynamic positioning reference, subsea survey"
-}</t>
+          <t>Transponder, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6349,9 +5868,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
-}</t>
+          <t>Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6378,7 +5895,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>{"tags": "Transponder, Positioning system, Inertial Measurement Unit, acoustic telemetry, underwater communication, subsea survey"}</t>
+          <t>Transponder, Modem, Inertial Measurement Unit, acoustic telemetry, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6405,7 +5922,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>{"Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"  : "tags"}</t>
+          <t>Transponder, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6432,9 +5949,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey"
-}</t>
+          <t>Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, subsea survey</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6461,9 +5976,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, dynamic positioning reference, ROV integration"
-}</t>
+          <t>Transponder, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6490,9 +6003,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, ROV integration, subsea survey"
-}</t>
+          <t>Transponder, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6519,9 +6030,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, ROV integration, subsea survey"
-}</t>
+          <t>Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6548,9 +6057,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Modem, Positioning system, acoustic telemetry, ROV integration, underwater communication, subsea survey"
-}, {"tags": "Modem, subsea, acoustic modem, live video solution, subsea communication, maritime communication"}</t>
+          <t>Modem, subsea, acoustic modem, live video solution, maritime communication, subsea communication, Modem, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6577,11 +6084,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>{
-  "product type": "Transponder, Positioning system",
-  "technology": "acoustic telemetry, Hydroacoustic Positioning",
-  "application": "ROV integration, subsea survey"
-}</t>
+          <t>Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, ROV integration, subsea survey</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6608,9 +6111,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>{
-  "tags": "Positioning system, Navigation system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration"
-}</t>
+          <t>Transponder, Positioning system, acoustic telemetry, Hydroacoustic Positioning, underwater communication, ROV integration</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6637,11 +6138,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>{
-  "tags": "echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey"
-}, {
-  "tags": "autonomous transceiver, echo sounder system, wideband technology, split-beam transducer, scientific research, fish stock assessment"
-}</t>
+          <t>echosounder transducer, transceiver marine research, split-beam transducer, dual frequency, fish finding, underwater survey, autonomous transceiver, oceanographic instrument, wideband technology, acoustic Doppler, scientific research, environmental monitoring</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
